--- a/data/HIPS_Genotype_Information_2022_2023.xlsx
+++ b/data/HIPS_Genotype_Information_2022_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jensinadavis/Library/CloudStorage/GoogleDrive-davisjensina@gmail.com/My Drive/Schnable-Lab/HIPS/hips/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98264407-0888-4E4F-B301-1423C82AC8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F982719-44A9-CA46-934D-79FF3020D7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIPS_Genotype_Information" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HIPS_Genotype_Information!$A$1:$CP$373</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2626,13 +2626,7 @@
     <t>BS11(FR)C3 . BS11(FR)C3 is an Iowa State University population developed by 3 cycles of reciprocal full-sib selection from Pioneer Two-ear Composite, with Iowa Two-ear Synthetic #1 as the tester.</t>
   </si>
   <si>
-    <t>LP1</t>
-  </si>
-  <si>
     <t>PI 600729</t>
-  </si>
-  <si>
-    <t>LP1 NR HT'/NSSL 108313/LP1</t>
   </si>
   <si>
     <t>182Ht1-Blk-1 . 182Ht1-Blk-1 is a private selection related to A632 with Helminthosporium turcicum resistance and was the recurrent male parent.</t>
@@ -5488,6 +5482,12 @@
   </si>
   <si>
     <t>PVP 9100124</t>
+  </si>
+  <si>
+    <t>LP1 NR HT</t>
+  </si>
+  <si>
+    <t>LP1/NSSL 108313/LP1</t>
   </si>
 </sst>
 </file>
@@ -5998,14 +5998,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6387,9 +6386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G375" sqref="G375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6418,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -6461,10 +6460,10 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C3" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D3">
         <v>1983</v>
@@ -6473,13 +6472,13 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="I3" t="s">
         <v>313</v>
       </c>
       <c r="J3" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6761,10 +6760,10 @@
         <v>78004</v>
       </c>
       <c r="B15" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C15" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D15">
         <v>1985</v>
@@ -6779,7 +6778,7 @@
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -6831,7 +6830,7 @@
         <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -6860,7 +6859,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -6886,7 +6885,7 @@
         <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -6899,6 +6898,9 @@
       <c r="C20" t="s">
         <v>83</v>
       </c>
+      <c r="E20">
+        <v>1943</v>
+      </c>
       <c r="F20" t="s">
         <v>84</v>
       </c>
@@ -6913,6 +6915,9 @@
       <c r="C21" t="s">
         <v>86</v>
       </c>
+      <c r="E21">
+        <v>2002</v>
+      </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
@@ -6946,7 +6951,7 @@
         <v>66</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -6972,7 +6977,7 @@
         <v>66</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -7024,7 +7029,7 @@
         <v>66</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -7075,13 +7080,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1600</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1602</v>
       </c>
       <c r="E28">
         <v>1965</v>
@@ -7090,10 +7095,10 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="H28" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -7213,13 +7218,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C34" t="s">
         <v>1605</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1607</v>
       </c>
       <c r="D34">
         <v>1956</v>
@@ -7228,7 +7233,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="I34" t="s">
         <v>120</v>
@@ -7236,22 +7241,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C35" t="s">
         <v>1609</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>1610</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>1611</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>1612</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7610,13 +7615,13 @@
         <v>210</v>
       </c>
       <c r="H51" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="I51" t="s">
         <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -7682,7 +7687,7 @@
         <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -7769,7 +7774,7 @@
         <v>221</v>
       </c>
       <c r="J57" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -7798,7 +7803,7 @@
         <v>246</v>
       </c>
       <c r="J58" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -7827,7 +7832,7 @@
         <v>221</v>
       </c>
       <c r="J59" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -7884,13 +7889,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C62" t="s">
         <v>1621</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1623</v>
       </c>
       <c r="E62">
         <v>1968</v>
@@ -7899,10 +7904,10 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="H62" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -7980,7 +7985,7 @@
         <v>266</v>
       </c>
       <c r="J65" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -8009,7 +8014,7 @@
         <v>282</v>
       </c>
       <c r="J66" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -8116,7 +8121,7 @@
         <v>303</v>
       </c>
       <c r="J70" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -8147,7 +8152,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B72" t="s">
         <v>310</v>
@@ -8202,7 +8207,7 @@
         <v>322</v>
       </c>
       <c r="D74" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F74" t="s">
         <v>30</v>
@@ -8222,7 +8227,7 @@
         <v>326</v>
       </c>
       <c r="D75" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F75" t="s">
         <v>21</v>
@@ -8242,7 +8247,7 @@
         <v>330</v>
       </c>
       <c r="D76" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F76" t="s">
         <v>21</v>
@@ -8256,13 +8261,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C77" t="s">
         <v>1629</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1631</v>
       </c>
       <c r="D77">
         <v>1948</v>
@@ -8271,10 +8276,10 @@
         <v>84</v>
       </c>
       <c r="G77" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="I77" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -8287,6 +8292,9 @@
       <c r="C78" s="5" t="s">
         <v>334</v>
       </c>
+      <c r="D78" s="5">
+        <v>1939</v>
+      </c>
       <c r="F78" s="5" t="s">
         <v>335</v>
       </c>
@@ -8300,27 +8308,27 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>339</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D79">
+        <v>1948</v>
+      </c>
+      <c r="F79" t="s">
+        <v>335</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H79" t="s">
         <v>1641</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1948</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -8356,8 +8364,8 @@
       <c r="C81" t="s">
         <v>348</v>
       </c>
-      <c r="E81">
-        <v>2012</v>
+      <c r="D81">
+        <v>1982</v>
       </c>
       <c r="F81" t="s">
         <v>343</v>
@@ -8388,13 +8396,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B83" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C83" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D83">
         <v>1945</v>
@@ -8403,13 +8411,13 @@
         <v>84</v>
       </c>
       <c r="G83" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I83" t="s">
         <v>1636</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I83" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -8480,10 +8488,10 @@
         <v>366</v>
       </c>
       <c r="B87" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C87" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D87">
         <v>1960</v>
@@ -8492,7 +8500,7 @@
         <v>343</v>
       </c>
       <c r="G87" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="H87" t="s">
         <v>337</v>
@@ -8649,45 +8657,45 @@
         <v>398</v>
       </c>
       <c r="B95" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C95" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D95" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F95" t="s">
         <v>384</v>
       </c>
       <c r="G95" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="H95" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C96" t="s">
         <v>1652</v>
       </c>
-      <c r="B96" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1654</v>
-      </c>
       <c r="D96" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F96" t="s">
         <v>384</v>
       </c>
       <c r="G96" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="H96" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -8828,10 +8836,10 @@
         <v>428</v>
       </c>
       <c r="I102" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="J102" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -8857,10 +8865,10 @@
         <v>433</v>
       </c>
       <c r="I103" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="J103" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -8874,7 +8882,7 @@
         <v>436</v>
       </c>
       <c r="D104" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F104" t="s">
         <v>384</v>
@@ -8909,10 +8917,10 @@
         <v>442</v>
       </c>
       <c r="I105" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="J105" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -8926,7 +8934,7 @@
         <v>445</v>
       </c>
       <c r="D106" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F106" t="s">
         <v>384</v>
@@ -8949,7 +8957,7 @@
         <v>450</v>
       </c>
       <c r="D107" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F107" t="s">
         <v>384</v>
@@ -8969,7 +8977,7 @@
         <v>454</v>
       </c>
       <c r="D108" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F108" t="s">
         <v>384</v>
@@ -8992,7 +9000,7 @@
         <v>459</v>
       </c>
       <c r="D109" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F109" t="s">
         <v>384</v>
@@ -9015,7 +9023,7 @@
         <v>464</v>
       </c>
       <c r="D110" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F110" t="s">
         <v>384</v>
@@ -9038,7 +9046,7 @@
         <v>469</v>
       </c>
       <c r="D111" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F111" t="s">
         <v>384</v>
@@ -9061,7 +9069,7 @@
         <v>474</v>
       </c>
       <c r="D112" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F112" t="s">
         <v>384</v>
@@ -9090,33 +9098,33 @@
         <v>479</v>
       </c>
       <c r="I113" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="J113" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C114" t="s">
         <v>1663</v>
       </c>
-      <c r="B114" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1665</v>
-      </c>
       <c r="D114" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F114" t="s">
         <v>384</v>
       </c>
       <c r="G114" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="H114" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -9139,33 +9147,33 @@
         <v>483</v>
       </c>
       <c r="I115" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="J115" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C116" t="s">
         <v>1670</v>
       </c>
-      <c r="B116" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1672</v>
-      </c>
       <c r="D116" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F116" t="s">
         <v>384</v>
       </c>
       <c r="G116" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="H116" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -9179,7 +9187,7 @@
         <v>486</v>
       </c>
       <c r="D117" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F117" t="s">
         <v>384</v>
@@ -9199,7 +9207,7 @@
         <v>490</v>
       </c>
       <c r="D118" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F118" t="s">
         <v>384</v>
@@ -9222,7 +9230,7 @@
         <v>495</v>
       </c>
       <c r="D119" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F119" t="s">
         <v>384</v>
@@ -9236,22 +9244,22 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C120" t="s">
         <v>1676</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>1677</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1679</v>
       </c>
       <c r="F120" t="s">
         <v>370</v>
       </c>
       <c r="G120" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="H120" t="s">
         <v>505</v>
@@ -9262,13 +9270,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C121" t="s">
         <v>1681</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1683</v>
       </c>
       <c r="D121">
         <v>1958</v>
@@ -9277,7 +9285,7 @@
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -9291,7 +9299,7 @@
         <v>500</v>
       </c>
       <c r="D122" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
@@ -9308,7 +9316,7 @@
         <v>503</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>21</v>
@@ -9411,7 +9419,7 @@
         <v>524</v>
       </c>
       <c r="D128" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F128" t="s">
         <v>525</v>
@@ -9425,10 +9433,10 @@
         <v>527</v>
       </c>
       <c r="B129" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C129" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D129">
         <v>1999</v>
@@ -9437,16 +9445,16 @@
         <v>531</v>
       </c>
       <c r="G129" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I129" t="s">
         <v>1687</v>
       </c>
-      <c r="H129" t="s">
+      <c r="J129" t="s">
         <v>1688</v>
-      </c>
-      <c r="I129" t="s">
-        <v>1689</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -9472,7 +9480,7 @@
         <v>533</v>
       </c>
       <c r="J130" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -9498,10 +9506,10 @@
         <v>538</v>
       </c>
       <c r="I131" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="J131" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -9535,7 +9543,7 @@
         <v>545</v>
       </c>
       <c r="D133" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F133" t="s">
         <v>546</v>
@@ -9564,7 +9572,7 @@
         <v>551</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -9610,7 +9618,7 @@
         <v>66</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -9624,7 +9632,7 @@
         <v>563</v>
       </c>
       <c r="D137" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F137" t="s">
         <v>546</v>
@@ -9656,24 +9664,24 @@
         <v>569</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C139" t="s">
         <v>1695</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1697</v>
       </c>
       <c r="E139">
         <v>1987</v>
       </c>
       <c r="F139" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -9722,7 +9730,7 @@
         <v>66</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -9748,7 +9756,7 @@
         <v>66</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -9949,7 +9957,7 @@
         <v>623</v>
       </c>
       <c r="D151" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
@@ -10121,7 +10129,7 @@
         <v>657</v>
       </c>
       <c r="D159" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F159" t="s">
         <v>546</v>
@@ -10132,13 +10140,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C160" t="s">
         <v>1700</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1702</v>
       </c>
       <c r="E160">
         <v>1998</v>
@@ -10147,7 +10155,7 @@
         <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="I160" t="s">
         <v>674</v>
@@ -10164,7 +10172,7 @@
         <v>661</v>
       </c>
       <c r="D161" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F161" t="s">
         <v>343</v>
@@ -10227,7 +10235,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B164" t="s">
         <v>675</v>
@@ -10259,7 +10267,7 @@
         <v>681</v>
       </c>
       <c r="D165" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F165" t="s">
         <v>43</v>
@@ -10282,7 +10290,7 @@
         <v>686</v>
       </c>
       <c r="D166" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F166" t="s">
         <v>43</v>
@@ -10308,7 +10316,7 @@
         <v>691</v>
       </c>
       <c r="D167" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F167" t="s">
         <v>43</v>
@@ -10331,7 +10339,7 @@
         <v>694</v>
       </c>
       <c r="D168" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F168" t="s">
         <v>49</v>
@@ -10520,13 +10528,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C177" t="s">
         <v>1706</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1708</v>
       </c>
       <c r="D177">
         <v>1992</v>
@@ -10535,7 +10543,7 @@
         <v>726</v>
       </c>
       <c r="G177" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -10543,13 +10551,13 @@
         <v>736</v>
       </c>
       <c r="B178" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D178" t="s">
         <v>1710</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1712</v>
       </c>
       <c r="F178" t="s">
         <v>706</v>
@@ -10649,13 +10657,13 @@
     </row>
     <row r="183" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C183" t="s">
         <v>1713</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1715</v>
       </c>
       <c r="D183">
         <v>1934</v>
@@ -10664,10 +10672,10 @@
         <v>43</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H183" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="I183" t="s">
         <v>674</v>
@@ -10739,7 +10747,7 @@
         <v>770</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -10872,7 +10880,7 @@
         <v>770</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -10898,7 +10906,7 @@
         <v>66</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -10924,7 +10932,7 @@
         <v>770</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -10950,7 +10958,7 @@
         <v>770</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -10973,7 +10981,7 @@
         <v>810</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -10999,7 +11007,7 @@
         <v>770</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
@@ -11025,7 +11033,7 @@
         <v>770</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -11210,7 +11218,7 @@
         <v>770</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -11239,7 +11247,7 @@
         <v>770</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -11265,7 +11273,7 @@
         <v>770</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -11291,18 +11299,18 @@
         <v>770</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B208" t="s">
         <v>867</v>
       </c>
-      <c r="B208" t="s">
-        <v>868</v>
-      </c>
       <c r="C208" t="s">
-        <v>869</v>
+        <v>1819</v>
       </c>
       <c r="D208">
         <v>1978</v>
@@ -11311,107 +11319,107 @@
         <v>49</v>
       </c>
       <c r="G208" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I208" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>870</v>
+      </c>
+      <c r="B209" t="s">
+        <v>871</v>
+      </c>
+      <c r="C209" t="s">
         <v>872</v>
-      </c>
-      <c r="B209" t="s">
-        <v>873</v>
-      </c>
-      <c r="C209" t="s">
-        <v>874</v>
       </c>
       <c r="D209">
         <v>1985</v>
       </c>
       <c r="F209" t="s">
+        <v>873</v>
+      </c>
+      <c r="G209" t="s">
+        <v>874</v>
+      </c>
+      <c r="I209" t="s">
         <v>875</v>
-      </c>
-      <c r="G209" t="s">
-        <v>876</v>
-      </c>
-      <c r="I209" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="255" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C210" t="s">
         <v>1718</v>
       </c>
-      <c r="B210" t="s">
+      <c r="D210" t="s">
         <v>1719</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1721</v>
       </c>
       <c r="F210" t="s">
         <v>49</v>
       </c>
       <c r="G210" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>1723</v>
+        <v>1720</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>876</v>
+      </c>
+      <c r="B211" t="s">
+        <v>877</v>
+      </c>
+      <c r="C211" t="s">
         <v>878</v>
       </c>
-      <c r="B211" t="s">
+      <c r="D211" t="s">
         <v>879</v>
-      </c>
-      <c r="C211" t="s">
-        <v>880</v>
-      </c>
-      <c r="D211" t="s">
-        <v>881</v>
       </c>
       <c r="F211" t="s">
         <v>525</v>
       </c>
       <c r="G211" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>881</v>
+      </c>
+      <c r="B212" t="s">
+        <v>882</v>
+      </c>
+      <c r="C212" t="s">
         <v>883</v>
       </c>
-      <c r="B212" t="s">
-        <v>884</v>
-      </c>
-      <c r="C212" t="s">
-        <v>885</v>
-      </c>
       <c r="D212" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F212" t="s">
         <v>525</v>
       </c>
       <c r="G212" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>885</v>
+      </c>
+      <c r="B213" t="s">
+        <v>886</v>
+      </c>
+      <c r="C213" t="s">
         <v>887</v>
-      </c>
-      <c r="B213" t="s">
-        <v>888</v>
-      </c>
-      <c r="C213" t="s">
-        <v>889</v>
       </c>
       <c r="D213">
         <v>1985</v>
@@ -11420,24 +11428,24 @@
         <v>49</v>
       </c>
       <c r="G213" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I213" t="s">
         <v>66</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>889</v>
+      </c>
+      <c r="B214" t="s">
+        <v>890</v>
+      </c>
+      <c r="C214" t="s">
         <v>891</v>
-      </c>
-      <c r="B214" t="s">
-        <v>892</v>
-      </c>
-      <c r="C214" t="s">
-        <v>893</v>
       </c>
       <c r="D214">
         <v>1988</v>
@@ -11446,24 +11454,24 @@
         <v>49</v>
       </c>
       <c r="G214" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I214" t="s">
         <v>66</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>893</v>
+      </c>
+      <c r="B215" t="s">
+        <v>894</v>
+      </c>
+      <c r="C215" t="s">
         <v>895</v>
-      </c>
-      <c r="B215" t="s">
-        <v>896</v>
-      </c>
-      <c r="C215" t="s">
-        <v>897</v>
       </c>
       <c r="D215">
         <v>1982</v>
@@ -11472,10 +11480,10 @@
         <v>49</v>
       </c>
       <c r="G215" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H215" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I215" t="s">
         <v>66</v>
@@ -11483,13 +11491,13 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>898</v>
+      </c>
+      <c r="B216" t="s">
+        <v>899</v>
+      </c>
+      <c r="C216" t="s">
         <v>900</v>
-      </c>
-      <c r="B216" t="s">
-        <v>901</v>
-      </c>
-      <c r="C216" t="s">
-        <v>902</v>
       </c>
       <c r="D216">
         <v>1993</v>
@@ -11498,21 +11506,21 @@
         <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I216" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>903</v>
+      </c>
+      <c r="B217" t="s">
+        <v>904</v>
+      </c>
+      <c r="C217" t="s">
         <v>905</v>
-      </c>
-      <c r="B217" t="s">
-        <v>906</v>
-      </c>
-      <c r="C217" t="s">
-        <v>907</v>
       </c>
       <c r="D217">
         <v>1964</v>
@@ -11521,10 +11529,10 @@
         <v>105</v>
       </c>
       <c r="G217" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H217" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I217" t="s">
         <v>362</v>
@@ -11532,13 +11540,13 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>908</v>
+      </c>
+      <c r="B218" t="s">
+        <v>909</v>
+      </c>
+      <c r="C218" t="s">
         <v>910</v>
-      </c>
-      <c r="B218" t="s">
-        <v>911</v>
-      </c>
-      <c r="C218" t="s">
-        <v>912</v>
       </c>
       <c r="D218">
         <v>1973</v>
@@ -11547,27 +11555,27 @@
         <v>105</v>
       </c>
       <c r="G218" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H218" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I218" t="s">
         <v>362</v>
       </c>
       <c r="J218" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>913</v>
+      </c>
+      <c r="B219" t="s">
+        <v>914</v>
+      </c>
+      <c r="C219" t="s">
         <v>915</v>
-      </c>
-      <c r="B219" t="s">
-        <v>916</v>
-      </c>
-      <c r="C219" t="s">
-        <v>917</v>
       </c>
       <c r="D219">
         <v>1973</v>
@@ -11576,27 +11584,27 @@
         <v>105</v>
       </c>
       <c r="G219" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H219" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I219" t="s">
         <v>362</v>
       </c>
       <c r="J219" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>918</v>
+      </c>
+      <c r="B220" t="s">
+        <v>919</v>
+      </c>
+      <c r="C220" t="s">
         <v>920</v>
-      </c>
-      <c r="B220" t="s">
-        <v>921</v>
-      </c>
-      <c r="C220" t="s">
-        <v>922</v>
       </c>
       <c r="E220">
         <v>1993</v>
@@ -11605,24 +11613,24 @@
         <v>105</v>
       </c>
       <c r="G220" t="s">
+        <v>921</v>
+      </c>
+      <c r="I220" t="s">
+        <v>922</v>
+      </c>
+      <c r="J220" t="s">
         <v>923</v>
-      </c>
-      <c r="I220" t="s">
-        <v>924</v>
-      </c>
-      <c r="J220" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>924</v>
+      </c>
+      <c r="B221" t="s">
+        <v>925</v>
+      </c>
+      <c r="C221" t="s">
         <v>926</v>
-      </c>
-      <c r="B221" t="s">
-        <v>927</v>
-      </c>
-      <c r="C221" t="s">
-        <v>928</v>
       </c>
       <c r="D221">
         <v>1986</v>
@@ -11631,21 +11639,21 @@
         <v>105</v>
       </c>
       <c r="G221" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J221" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>928</v>
+      </c>
+      <c r="B222" t="s">
+        <v>929</v>
+      </c>
+      <c r="C222" t="s">
         <v>930</v>
-      </c>
-      <c r="B222" t="s">
-        <v>931</v>
-      </c>
-      <c r="C222" t="s">
-        <v>932</v>
       </c>
       <c r="D222">
         <v>1994</v>
@@ -11654,27 +11662,27 @@
         <v>105</v>
       </c>
       <c r="G222" t="s">
+        <v>931</v>
+      </c>
+      <c r="H222" t="s">
+        <v>932</v>
+      </c>
+      <c r="I222" t="s">
         <v>933</v>
       </c>
-      <c r="H222" t="s">
-        <v>934</v>
-      </c>
-      <c r="I222" t="s">
-        <v>935</v>
-      </c>
       <c r="J222" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>934</v>
+      </c>
+      <c r="B223" t="s">
+        <v>935</v>
+      </c>
+      <c r="C223" t="s">
         <v>936</v>
-      </c>
-      <c r="B223" t="s">
-        <v>937</v>
-      </c>
-      <c r="C223" t="s">
-        <v>938</v>
       </c>
       <c r="D223">
         <v>1994</v>
@@ -11683,27 +11691,27 @@
         <v>105</v>
       </c>
       <c r="G223" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H223" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I223" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J223" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>939</v>
+      </c>
+      <c r="B224" t="s">
+        <v>940</v>
+      </c>
+      <c r="C224" t="s">
         <v>941</v>
-      </c>
-      <c r="B224" t="s">
-        <v>942</v>
-      </c>
-      <c r="C224" t="s">
-        <v>943</v>
       </c>
       <c r="D224">
         <v>1994</v>
@@ -11712,27 +11720,27 @@
         <v>105</v>
       </c>
       <c r="G224" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H224" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I224" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J224" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>944</v>
+      </c>
+      <c r="B225" t="s">
+        <v>945</v>
+      </c>
+      <c r="C225" t="s">
         <v>946</v>
-      </c>
-      <c r="B225" t="s">
-        <v>947</v>
-      </c>
-      <c r="C225" t="s">
-        <v>948</v>
       </c>
       <c r="E225">
         <v>1945</v>
@@ -11741,18 +11749,18 @@
         <v>84</v>
       </c>
       <c r="H225" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>948</v>
+      </c>
+      <c r="B226" t="s">
+        <v>949</v>
+      </c>
+      <c r="C226" t="s">
         <v>950</v>
-      </c>
-      <c r="B226" t="s">
-        <v>951</v>
-      </c>
-      <c r="C226" t="s">
-        <v>952</v>
       </c>
       <c r="D226">
         <v>1991</v>
@@ -11761,67 +11769,67 @@
         <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I226" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>952</v>
+      </c>
+      <c r="B227" t="s">
+        <v>953</v>
+      </c>
+      <c r="C227" t="s">
         <v>954</v>
-      </c>
-      <c r="B227" t="s">
-        <v>955</v>
-      </c>
-      <c r="C227" t="s">
-        <v>956</v>
       </c>
       <c r="D227">
         <v>1962</v>
       </c>
       <c r="F227" t="s">
+        <v>955</v>
+      </c>
+      <c r="G227" t="s">
+        <v>956</v>
+      </c>
+      <c r="I227" t="s">
         <v>957</v>
-      </c>
-      <c r="G227" t="s">
-        <v>958</v>
-      </c>
-      <c r="I227" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>958</v>
+      </c>
+      <c r="B228" t="s">
+        <v>959</v>
+      </c>
+      <c r="C228" t="s">
         <v>960</v>
-      </c>
-      <c r="B228" t="s">
-        <v>961</v>
-      </c>
-      <c r="C228" t="s">
-        <v>962</v>
       </c>
       <c r="E228">
         <v>1992</v>
       </c>
       <c r="F228" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G228" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J228" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>963</v>
+      </c>
+      <c r="B229" t="s">
+        <v>964</v>
+      </c>
+      <c r="C229" t="s">
         <v>965</v>
-      </c>
-      <c r="B229" t="s">
-        <v>966</v>
-      </c>
-      <c r="C229" t="s">
-        <v>967</v>
       </c>
       <c r="E229">
         <v>1993</v>
@@ -11830,7 +11838,7 @@
         <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I229" t="s">
         <v>120</v>
@@ -11838,13 +11846,13 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>967</v>
+      </c>
+      <c r="B230" t="s">
+        <v>968</v>
+      </c>
+      <c r="C230" t="s">
         <v>969</v>
-      </c>
-      <c r="B230" t="s">
-        <v>970</v>
-      </c>
-      <c r="C230" t="s">
-        <v>971</v>
       </c>
       <c r="D230">
         <v>1986</v>
@@ -11853,27 +11861,27 @@
         <v>35</v>
       </c>
       <c r="G230" t="s">
+        <v>970</v>
+      </c>
+      <c r="H230" t="s">
+        <v>971</v>
+      </c>
+      <c r="I230" t="s">
         <v>972</v>
       </c>
-      <c r="H230" t="s">
-        <v>973</v>
-      </c>
-      <c r="I230" t="s">
-        <v>974</v>
-      </c>
       <c r="J230" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>973</v>
+      </c>
+      <c r="B231" t="s">
+        <v>974</v>
+      </c>
+      <c r="C231" t="s">
         <v>975</v>
-      </c>
-      <c r="B231" t="s">
-        <v>976</v>
-      </c>
-      <c r="C231" t="s">
-        <v>977</v>
       </c>
       <c r="D231">
         <v>1997</v>
@@ -11882,70 +11890,70 @@
         <v>35</v>
       </c>
       <c r="G231" t="s">
+        <v>976</v>
+      </c>
+      <c r="H231" t="s">
+        <v>977</v>
+      </c>
+      <c r="J231" t="s">
         <v>978</v>
-      </c>
-      <c r="H231" t="s">
-        <v>979</v>
-      </c>
-      <c r="J231" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>979</v>
+      </c>
+      <c r="B232" t="s">
+        <v>980</v>
+      </c>
+      <c r="C232" t="s">
         <v>981</v>
       </c>
-      <c r="B232" t="s">
+      <c r="D232" t="s">
         <v>982</v>
-      </c>
-      <c r="C232" t="s">
-        <v>983</v>
-      </c>
-      <c r="D232" t="s">
-        <v>984</v>
       </c>
       <c r="F232" t="s">
         <v>270</v>
       </c>
       <c r="G232" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J232" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>985</v>
+      </c>
+      <c r="B233" t="s">
+        <v>986</v>
+      </c>
+      <c r="C233" t="s">
         <v>987</v>
       </c>
-      <c r="B233" t="s">
-        <v>988</v>
-      </c>
-      <c r="C233" t="s">
-        <v>989</v>
-      </c>
       <c r="D233" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F233" t="s">
         <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H233" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>989</v>
+      </c>
+      <c r="B234" t="s">
+        <v>990</v>
+      </c>
+      <c r="C234" t="s">
         <v>991</v>
-      </c>
-      <c r="B234" t="s">
-        <v>992</v>
-      </c>
-      <c r="C234" t="s">
-        <v>993</v>
       </c>
       <c r="D234">
         <v>1969</v>
@@ -11954,24 +11962,24 @@
         <v>35</v>
       </c>
       <c r="G234" t="s">
+        <v>992</v>
+      </c>
+      <c r="H234" t="s">
+        <v>993</v>
+      </c>
+      <c r="I234" t="s">
         <v>994</v>
-      </c>
-      <c r="H234" t="s">
-        <v>995</v>
-      </c>
-      <c r="I234" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>995</v>
+      </c>
+      <c r="B235" t="s">
+        <v>996</v>
+      </c>
+      <c r="C235" t="s">
         <v>997</v>
-      </c>
-      <c r="B235" t="s">
-        <v>998</v>
-      </c>
-      <c r="C235" t="s">
-        <v>999</v>
       </c>
       <c r="D235">
         <v>1974</v>
@@ -11980,24 +11988,24 @@
         <v>270</v>
       </c>
       <c r="G235" t="s">
+        <v>998</v>
+      </c>
+      <c r="H235" t="s">
+        <v>999</v>
+      </c>
+      <c r="I235" t="s">
         <v>1000</v>
-      </c>
-      <c r="H235" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I235" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C236" t="s">
         <v>1003</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1005</v>
       </c>
       <c r="D236">
         <v>1963</v>
@@ -12006,24 +12014,24 @@
         <v>270</v>
       </c>
       <c r="G236" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H236" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I236" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C237" t="s">
         <v>1008</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1010</v>
       </c>
       <c r="D237">
         <v>1963</v>
@@ -12032,24 +12040,24 @@
         <v>270</v>
       </c>
       <c r="G237" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H237" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I237" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C238" t="s">
         <v>1013</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1015</v>
       </c>
       <c r="D238">
         <v>1974</v>
@@ -12058,27 +12066,27 @@
         <v>270</v>
       </c>
       <c r="G238" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J238" t="s">
         <v>1016</v>
-      </c>
-      <c r="H238" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I238" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J238" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C239" t="s">
         <v>1019</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1021</v>
       </c>
       <c r="D239">
         <v>1982</v>
@@ -12087,24 +12095,24 @@
         <v>270</v>
       </c>
       <c r="G239" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I239" t="s">
         <v>1022</v>
-      </c>
-      <c r="H239" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C240" t="s">
         <v>1025</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1027</v>
       </c>
       <c r="D240">
         <v>1986</v>
@@ -12113,24 +12121,24 @@
         <v>270</v>
       </c>
       <c r="G240" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J240" t="s">
         <v>1028</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J240" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C241" t="s">
         <v>1031</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1033</v>
       </c>
       <c r="D241">
         <v>1988</v>
@@ -12139,24 +12147,24 @@
         <v>270</v>
       </c>
       <c r="G241" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I241" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J241" t="s">
         <v>1034</v>
-      </c>
-      <c r="I241" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J241" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C242" t="s">
         <v>1037</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1039</v>
       </c>
       <c r="D242">
         <v>1986</v>
@@ -12165,21 +12173,21 @@
         <v>270</v>
       </c>
       <c r="G242" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H242" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C243" t="s">
         <v>1042</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1044</v>
       </c>
       <c r="D243">
         <v>1987</v>
@@ -12188,21 +12196,21 @@
         <v>270</v>
       </c>
       <c r="G243" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H243" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C244" t="s">
         <v>1047</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1049</v>
       </c>
       <c r="D244">
         <v>1996</v>
@@ -12211,21 +12219,21 @@
         <v>270</v>
       </c>
       <c r="G244" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I244" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C245" t="s">
         <v>1051</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1053</v>
       </c>
       <c r="D245">
         <v>1990</v>
@@ -12234,21 +12242,21 @@
         <v>270</v>
       </c>
       <c r="G245" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I245" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C246" t="s">
         <v>1055</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1057</v>
       </c>
       <c r="D246">
         <v>1990</v>
@@ -12257,21 +12265,21 @@
         <v>270</v>
       </c>
       <c r="G246" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I246" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C247" t="s">
         <v>1059</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1061</v>
       </c>
       <c r="D247">
         <v>1992</v>
@@ -12280,21 +12288,21 @@
         <v>270</v>
       </c>
       <c r="G247" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I247" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C248" t="s">
         <v>1063</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1065</v>
       </c>
       <c r="D248">
         <v>1992</v>
@@ -12303,21 +12311,21 @@
         <v>270</v>
       </c>
       <c r="G248" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I248" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C249" t="s">
         <v>1067</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1069</v>
       </c>
       <c r="D249">
         <v>1994</v>
@@ -12326,21 +12334,21 @@
         <v>270</v>
       </c>
       <c r="G249" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I249" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C250" t="s">
         <v>1071</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1073</v>
       </c>
       <c r="D250">
         <v>1994</v>
@@ -12349,21 +12357,21 @@
         <v>270</v>
       </c>
       <c r="G250" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I250" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C251" t="s">
         <v>1075</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1077</v>
       </c>
       <c r="D251">
         <v>1997</v>
@@ -12372,21 +12380,21 @@
         <v>270</v>
       </c>
       <c r="G251" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I251" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C252" t="s">
         <v>1079</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1081</v>
       </c>
       <c r="D252">
         <v>1994</v>
@@ -12395,21 +12403,21 @@
         <v>270</v>
       </c>
       <c r="G252" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="I252" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C253" t="s">
         <v>1083</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1085</v>
       </c>
       <c r="D253">
         <v>1994</v>
@@ -12418,21 +12426,21 @@
         <v>270</v>
       </c>
       <c r="G253" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="I253" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C254" t="s">
         <v>1087</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1089</v>
       </c>
       <c r="D254">
         <v>1994</v>
@@ -12441,21 +12449,21 @@
         <v>270</v>
       </c>
       <c r="G254" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="I254" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C255" t="s">
         <v>1090</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1092</v>
       </c>
       <c r="D255">
         <v>1996</v>
@@ -12464,21 +12472,21 @@
         <v>270</v>
       </c>
       <c r="G255" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I255" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C256" t="s">
         <v>1094</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1096</v>
       </c>
       <c r="D256">
         <v>1996</v>
@@ -12487,21 +12495,21 @@
         <v>270</v>
       </c>
       <c r="G256" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="I256" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C257" t="s">
         <v>1098</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1100</v>
       </c>
       <c r="D257">
         <v>1996</v>
@@ -12510,21 +12518,21 @@
         <v>270</v>
       </c>
       <c r="G257" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I257" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C258" t="s">
         <v>1102</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1104</v>
       </c>
       <c r="D258">
         <v>1955</v>
@@ -12533,21 +12541,21 @@
         <v>270</v>
       </c>
       <c r="G258" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="I258" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C259" t="s">
         <v>1106</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1108</v>
       </c>
       <c r="D259">
         <v>1997</v>
@@ -12556,21 +12564,21 @@
         <v>270</v>
       </c>
       <c r="G259" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I259" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C260" t="s">
         <v>1110</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1112</v>
       </c>
       <c r="D260">
         <v>1997</v>
@@ -12579,21 +12587,21 @@
         <v>270</v>
       </c>
       <c r="G260" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="I260" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C261" t="s">
         <v>1114</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1116</v>
       </c>
       <c r="D261">
         <v>1997</v>
@@ -12602,21 +12610,21 @@
         <v>270</v>
       </c>
       <c r="G261" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="I261" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C262" t="s">
         <v>1118</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1120</v>
       </c>
       <c r="D262">
         <v>1997</v>
@@ -12625,21 +12633,21 @@
         <v>270</v>
       </c>
       <c r="G262" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I262" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C263" t="s">
         <v>1122</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1124</v>
       </c>
       <c r="D263">
         <v>1998</v>
@@ -12648,21 +12656,21 @@
         <v>270</v>
       </c>
       <c r="G263" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="I263" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C264" t="s">
         <v>1126</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1128</v>
       </c>
       <c r="D264">
         <v>1998</v>
@@ -12671,21 +12679,21 @@
         <v>270</v>
       </c>
       <c r="G264" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I264" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C265" t="s">
         <v>1130</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1132</v>
       </c>
       <c r="D265">
         <v>1998</v>
@@ -12694,21 +12702,21 @@
         <v>270</v>
       </c>
       <c r="G265" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="I265" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C266" t="s">
         <v>1134</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1136</v>
       </c>
       <c r="D266">
         <v>1998</v>
@@ -12717,21 +12725,21 @@
         <v>270</v>
       </c>
       <c r="G266" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="I266" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C267" t="s">
         <v>1138</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1140</v>
       </c>
       <c r="D267">
         <v>1998</v>
@@ -12740,21 +12748,21 @@
         <v>270</v>
       </c>
       <c r="G267" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H267" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C268" t="s">
         <v>1142</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1144</v>
       </c>
       <c r="D268">
         <v>1999</v>
@@ -12763,21 +12771,21 @@
         <v>270</v>
       </c>
       <c r="G268" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="I268" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C269" t="s">
         <v>1146</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1148</v>
       </c>
       <c r="D269">
         <v>1999</v>
@@ -12786,21 +12794,21 @@
         <v>270</v>
       </c>
       <c r="G269" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="I269" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C270" t="s">
         <v>1149</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1151</v>
       </c>
       <c r="D270">
         <v>1999</v>
@@ -12809,21 +12817,21 @@
         <v>270</v>
       </c>
       <c r="G270" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="I270" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C271" t="s">
         <v>1153</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1155</v>
       </c>
       <c r="D271">
         <v>1999</v>
@@ -12832,21 +12840,21 @@
         <v>270</v>
       </c>
       <c r="G271" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="I271" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C272" t="s">
         <v>1157</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1159</v>
       </c>
       <c r="D272">
         <v>1999</v>
@@ -12855,21 +12863,21 @@
         <v>270</v>
       </c>
       <c r="G272" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="I272" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C273" t="s">
         <v>1160</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1162</v>
       </c>
       <c r="D273">
         <v>1999</v>
@@ -12878,24 +12886,24 @@
         <v>270</v>
       </c>
       <c r="G273" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="I273" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="J273" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C274" t="s">
         <v>1165</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1167</v>
       </c>
       <c r="D274">
         <v>1999</v>
@@ -12904,73 +12912,73 @@
         <v>270</v>
       </c>
       <c r="G274" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I274" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B275" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C275" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D275">
         <v>1950</v>
       </c>
       <c r="F275" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H275" t="s">
         <v>1172</v>
-      </c>
-      <c r="G275" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C276" t="s">
         <v>1175</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1177</v>
       </c>
       <c r="D276">
         <v>1980</v>
       </c>
       <c r="F276" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G276" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I276" t="s">
         <v>1178</v>
       </c>
-      <c r="H276" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I276" t="s">
-        <v>1180</v>
-      </c>
       <c r="J276" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C277" t="s">
         <v>1181</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1183</v>
       </c>
       <c r="D277">
         <v>1991</v>
@@ -12979,24 +12987,24 @@
         <v>35</v>
       </c>
       <c r="G277" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I277" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J277" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C278" t="s">
         <v>1185</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1187</v>
       </c>
       <c r="D278">
         <v>1988</v>
@@ -13005,21 +13013,21 @@
         <v>30</v>
       </c>
       <c r="G278" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I278" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C279" t="s">
         <v>1189</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1191</v>
       </c>
       <c r="D279">
         <v>1987</v>
@@ -13028,64 +13036,64 @@
         <v>49</v>
       </c>
       <c r="G279" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="I279" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C280" t="s">
         <v>1193</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1195</v>
       </c>
       <c r="E280">
         <v>1963</v>
       </c>
       <c r="F280" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H280" t="s">
         <v>1196</v>
-      </c>
-      <c r="G280" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C281" t="s">
         <v>1199</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1201</v>
       </c>
       <c r="D281">
         <v>1949</v>
       </c>
       <c r="F281" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G281" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C282" t="s">
         <v>1203</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1205</v>
       </c>
       <c r="E282">
         <v>2003</v>
@@ -13099,19 +13107,19 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C283" t="s">
         <v>1206</v>
       </c>
-      <c r="B283" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1208</v>
-      </c>
       <c r="D283" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F283" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G283" t="s">
         <v>707</v>
@@ -13119,13 +13127,13 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C284" t="s">
         <v>1209</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1211</v>
       </c>
       <c r="D284">
         <v>1991</v>
@@ -13134,21 +13142,21 @@
         <v>30</v>
       </c>
       <c r="G284" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I284" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C285" t="s">
         <v>1213</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1215</v>
       </c>
       <c r="D285">
         <v>1934</v>
@@ -13157,21 +13165,21 @@
         <v>43</v>
       </c>
       <c r="G285" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I285" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C286" t="s">
         <v>1218</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1220</v>
       </c>
       <c r="D286">
         <v>1934</v>
@@ -13183,27 +13191,30 @@
         <v>9</v>
       </c>
       <c r="I286" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="287" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C287" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="B287" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>1223</v>
+      <c r="E287" s="5">
+        <v>1969</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I287" s="5" t="s">
         <v>53</v>
@@ -13211,102 +13222,102 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C288" t="s">
         <v>1226</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1228</v>
       </c>
       <c r="D288">
         <v>1970</v>
       </c>
       <c r="F288" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J288" t="s">
         <v>1229</v>
-      </c>
-      <c r="G288" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J288" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C289" t="s">
         <v>1232</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1234</v>
       </c>
       <c r="D289">
         <v>1983</v>
       </c>
       <c r="F289" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G289" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C290" t="s">
         <v>1236</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1238</v>
       </c>
       <c r="D290">
         <v>1988</v>
       </c>
       <c r="F290" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G290" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H290" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="J290" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C291" t="s">
         <v>1241</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1243</v>
       </c>
       <c r="E291">
         <v>1992</v>
       </c>
       <c r="F291" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G291" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C292" t="s">
         <v>1245</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1247</v>
       </c>
       <c r="D292">
         <v>1987</v>
@@ -13315,24 +13326,24 @@
         <v>49</v>
       </c>
       <c r="G292" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I292" t="s">
         <v>66</v>
       </c>
       <c r="J292" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C293" t="s">
         <v>1250</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1252</v>
       </c>
       <c r="D293">
         <v>1983</v>
@@ -13341,24 +13352,24 @@
         <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I293" t="s">
         <v>313</v>
       </c>
       <c r="J293" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C294" t="s">
         <v>1255</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1257</v>
       </c>
       <c r="D294">
         <v>1983</v>
@@ -13367,24 +13378,24 @@
         <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I294" t="s">
         <v>313</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C295" t="s">
         <v>1260</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1262</v>
       </c>
       <c r="D295">
         <v>1983</v>
@@ -13393,27 +13404,27 @@
         <v>11</v>
       </c>
       <c r="G295" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H295" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I295" t="s">
         <v>313</v>
       </c>
       <c r="J295" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B296" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C296" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D296">
         <v>1986</v>
@@ -13422,24 +13433,24 @@
         <v>30</v>
       </c>
       <c r="G296" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I296" t="s">
         <v>313</v>
       </c>
       <c r="J296" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C297" t="s">
         <v>1270</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1272</v>
       </c>
       <c r="D297">
         <v>1983</v>
@@ -13448,24 +13459,24 @@
         <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I297" t="s">
         <v>313</v>
       </c>
       <c r="J297" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C298" t="s">
         <v>1275</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1277</v>
       </c>
       <c r="D298">
         <v>1984</v>
@@ -13474,24 +13485,24 @@
         <v>43</v>
       </c>
       <c r="G298" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I298" t="s">
         <v>313</v>
       </c>
       <c r="J298" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C299" t="s">
         <v>1280</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1282</v>
       </c>
       <c r="D299">
         <v>1986</v>
@@ -13500,24 +13511,24 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I299" t="s">
         <v>313</v>
       </c>
       <c r="J299" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C300" t="s">
         <v>1285</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1287</v>
       </c>
       <c r="D300">
         <v>1985</v>
@@ -13526,24 +13537,24 @@
         <v>531</v>
       </c>
       <c r="G300" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I300" t="s">
         <v>313</v>
       </c>
       <c r="J300" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C301" t="s">
         <v>1290</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1292</v>
       </c>
       <c r="D301">
         <v>1986</v>
@@ -13552,24 +13563,24 @@
         <v>43</v>
       </c>
       <c r="G301" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I301" t="s">
         <v>313</v>
       </c>
       <c r="J301" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C302" t="s">
         <v>1295</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1297</v>
       </c>
       <c r="D302">
         <v>1987</v>
@@ -13578,24 +13589,24 @@
         <v>43</v>
       </c>
       <c r="G302" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I302" t="s">
         <v>313</v>
       </c>
       <c r="J302" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C303" t="s">
         <v>1300</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1302</v>
       </c>
       <c r="D303">
         <v>1988</v>
@@ -13604,24 +13615,24 @@
         <v>43</v>
       </c>
       <c r="G303" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I303" t="s">
         <v>313</v>
       </c>
       <c r="J303" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C304" t="s">
         <v>1305</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1307</v>
       </c>
       <c r="D304">
         <v>1986</v>
@@ -13630,24 +13641,24 @@
         <v>21</v>
       </c>
       <c r="G304" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I304" t="s">
         <v>313</v>
       </c>
       <c r="J304" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C305" t="s">
         <v>1310</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1312</v>
       </c>
       <c r="D305">
         <v>1991</v>
@@ -13656,24 +13667,24 @@
         <v>30</v>
       </c>
       <c r="G305" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I305" t="s">
         <v>313</v>
       </c>
       <c r="J305" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C306" t="s">
         <v>1315</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1317</v>
       </c>
       <c r="D306">
         <v>1990</v>
@@ -13682,24 +13693,24 @@
         <v>43</v>
       </c>
       <c r="G306" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I306" t="s">
         <v>313</v>
       </c>
       <c r="J306" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C307" t="s">
         <v>1320</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1322</v>
       </c>
       <c r="D307">
         <v>1987</v>
@@ -13708,24 +13719,24 @@
         <v>30</v>
       </c>
       <c r="G307" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I307" t="s">
         <v>313</v>
       </c>
       <c r="J307" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C308" t="s">
         <v>1325</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1327</v>
       </c>
       <c r="D308">
         <v>1988</v>
@@ -13734,24 +13745,24 @@
         <v>35</v>
       </c>
       <c r="G308" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I308" t="s">
         <v>313</v>
       </c>
       <c r="J308" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C309" t="s">
         <v>1330</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1332</v>
       </c>
       <c r="D309">
         <v>1987</v>
@@ -13760,24 +13771,24 @@
         <v>30</v>
       </c>
       <c r="G309" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I309" t="s">
         <v>313</v>
       </c>
       <c r="J309" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C310" t="s">
         <v>1335</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1337</v>
       </c>
       <c r="D310">
         <v>1990</v>
@@ -13786,24 +13797,24 @@
         <v>49</v>
       </c>
       <c r="G310" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I310" t="s">
         <v>313</v>
       </c>
       <c r="J310" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C311" t="s">
         <v>1340</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1342</v>
       </c>
       <c r="D311">
         <v>1989</v>
@@ -13812,24 +13823,24 @@
         <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I311" t="s">
         <v>313</v>
       </c>
       <c r="J311" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C312" t="s">
         <v>1345</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1347</v>
       </c>
       <c r="D312">
         <v>1988</v>
@@ -13838,24 +13849,24 @@
         <v>15</v>
       </c>
       <c r="G312" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I312" t="s">
         <v>313</v>
       </c>
       <c r="J312" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C313" t="s">
         <v>1350</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1352</v>
       </c>
       <c r="D313">
         <v>1986</v>
@@ -13864,24 +13875,24 @@
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I313" t="s">
         <v>313</v>
       </c>
       <c r="J313" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C314" t="s">
         <v>1355</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1357</v>
       </c>
       <c r="D314">
         <v>1992</v>
@@ -13890,24 +13901,24 @@
         <v>15</v>
       </c>
       <c r="G314" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I314" t="s">
         <v>313</v>
       </c>
       <c r="J314" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C315" t="s">
         <v>1360</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1362</v>
       </c>
       <c r="D315">
         <v>1987</v>
@@ -13916,50 +13927,50 @@
         <v>30</v>
       </c>
       <c r="G315" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I315" t="s">
         <v>313</v>
       </c>
       <c r="J315" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C316" t="s">
         <v>1365</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1367</v>
       </c>
       <c r="D316">
         <v>1987</v>
       </c>
       <c r="F316" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G316" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I316" t="s">
         <v>313</v>
       </c>
       <c r="J316" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C317" t="s">
         <v>1371</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1373</v>
       </c>
       <c r="D317">
         <v>1986</v>
@@ -13968,24 +13979,24 @@
         <v>11</v>
       </c>
       <c r="G317" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I317" t="s">
         <v>313</v>
       </c>
       <c r="J317" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C318" t="s">
         <v>1376</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1378</v>
       </c>
       <c r="D318">
         <v>1989</v>
@@ -13994,24 +14005,24 @@
         <v>43</v>
       </c>
       <c r="G318" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I318" t="s">
         <v>313</v>
       </c>
       <c r="J318" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C319" t="s">
         <v>1381</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1383</v>
       </c>
       <c r="D319">
         <v>1988</v>
@@ -14020,24 +14031,24 @@
         <v>43</v>
       </c>
       <c r="G319" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I319" t="s">
         <v>313</v>
       </c>
       <c r="J319" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C320" t="s">
         <v>1386</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1388</v>
       </c>
       <c r="D320">
         <v>1987</v>
@@ -14046,7 +14057,7 @@
         <v>11</v>
       </c>
       <c r="G320" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I320" t="s">
         <v>313</v>
@@ -14054,39 +14065,39 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C321" t="s">
         <v>1390</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1392</v>
       </c>
       <c r="D321">
         <v>1992</v>
       </c>
       <c r="F321" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G321" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I321" t="s">
         <v>313</v>
       </c>
       <c r="J321" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C322" t="s">
         <v>1395</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1397</v>
       </c>
       <c r="D322">
         <v>1986</v>
@@ -14095,47 +14106,47 @@
         <v>43</v>
       </c>
       <c r="G322" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I322" t="s">
         <v>313</v>
       </c>
       <c r="J322" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C323" t="s">
         <v>1400</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1402</v>
       </c>
       <c r="D323">
         <v>1979</v>
       </c>
       <c r="F323" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I323" t="s">
         <v>1403</v>
-      </c>
-      <c r="G323" t="s">
-        <v>1404</v>
-      </c>
-      <c r="I323" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C324" t="s">
         <v>1406</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1408</v>
       </c>
       <c r="D324">
         <v>1985</v>
@@ -14144,24 +14155,24 @@
         <v>30</v>
       </c>
       <c r="G324" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I324" t="s">
         <v>1409</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1410</v>
-      </c>
-      <c r="I324" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C325" t="s">
         <v>1412</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1414</v>
       </c>
       <c r="E325">
         <v>1989</v>
@@ -14170,18 +14181,18 @@
         <v>49</v>
       </c>
       <c r="G325" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C326" t="s">
         <v>1416</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1418</v>
       </c>
       <c r="E326">
         <v>1992</v>
@@ -14190,21 +14201,21 @@
         <v>49</v>
       </c>
       <c r="G326" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="H326" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C327" t="s">
         <v>1420</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1422</v>
       </c>
       <c r="E327">
         <v>1964</v>
@@ -14213,21 +14224,21 @@
         <v>49</v>
       </c>
       <c r="G327" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H327" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C328" t="s">
         <v>1424</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1426</v>
       </c>
       <c r="D328">
         <v>1996</v>
@@ -14236,27 +14247,27 @@
         <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="H328" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I328" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="J328" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C329" t="s">
         <v>1429</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1431</v>
       </c>
       <c r="E329">
         <v>1945</v>
@@ -14267,39 +14278,39 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B330" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C330" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D330">
         <v>1986</v>
       </c>
       <c r="F330" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I330" t="s">
         <v>1434</v>
       </c>
-      <c r="G330" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I330" t="s">
-        <v>1436</v>
-      </c>
       <c r="J330" s="3" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C331" t="s">
         <v>1437</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1439</v>
       </c>
       <c r="D331">
         <v>1988</v>
@@ -14308,7 +14319,7 @@
         <v>30</v>
       </c>
       <c r="G331" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="I331" t="s">
         <v>17</v>
@@ -14316,13 +14327,13 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C332" t="s">
         <v>1441</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1443</v>
       </c>
       <c r="D332">
         <v>1988</v>
@@ -14331,7 +14342,7 @@
         <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="I332" t="s">
         <v>17</v>
@@ -14339,166 +14350,166 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C333" t="s">
         <v>1445</v>
       </c>
-      <c r="B333" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1447</v>
-      </c>
       <c r="D333" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F333" t="s">
         <v>706</v>
       </c>
       <c r="G333" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C334" t="s">
         <v>1736</v>
       </c>
-      <c r="B334" t="s">
+      <c r="D334" t="s">
         <v>1737</v>
       </c>
-      <c r="C334" t="s">
+      <c r="F334" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G334" t="s">
         <v>1738</v>
       </c>
-      <c r="D334" t="s">
+      <c r="H334" t="s">
         <v>1739</v>
-      </c>
-      <c r="F334" t="s">
-        <v>1452</v>
-      </c>
-      <c r="G334" t="s">
-        <v>1740</v>
-      </c>
-      <c r="H334" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C335" t="s">
         <v>1449</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1451</v>
       </c>
       <c r="E335">
         <v>1967</v>
       </c>
       <c r="F335" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H335" t="s">
         <v>1452</v>
       </c>
-      <c r="G335" t="s">
+      <c r="J335" t="s">
         <v>1453</v>
-      </c>
-      <c r="H335" t="s">
-        <v>1454</v>
-      </c>
-      <c r="J335" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C336" t="s">
         <v>1456</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1458</v>
       </c>
       <c r="D336">
         <v>1972</v>
       </c>
       <c r="F336" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G336" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I336" t="s">
         <v>1459</v>
       </c>
-      <c r="H336" t="s">
+      <c r="J336" t="s">
         <v>1460</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J336" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C337" t="s">
         <v>1463</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1465</v>
       </c>
       <c r="D337">
         <v>1985</v>
       </c>
       <c r="F337" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H337" t="s">
         <v>1466</v>
       </c>
-      <c r="G337" t="s">
+      <c r="I337" t="s">
         <v>1467</v>
-      </c>
-      <c r="H337" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I337" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C338" t="s">
         <v>1470</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1472</v>
       </c>
       <c r="D338">
         <v>1989</v>
       </c>
       <c r="F338" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G338" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I338" t="s">
         <v>1473</v>
       </c>
-      <c r="H338" t="s">
-        <v>1474</v>
-      </c>
-      <c r="I338" t="s">
-        <v>1475</v>
-      </c>
       <c r="J338" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B339" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C339" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D339">
         <v>1978</v>
@@ -14507,21 +14518,21 @@
         <v>43</v>
       </c>
       <c r="G339" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="I339" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C340" t="s">
         <v>1480</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1482</v>
       </c>
       <c r="E340">
         <v>1992</v>
@@ -14535,13 +14546,13 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B341" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C341" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E341">
         <v>1970</v>
@@ -14555,100 +14566,100 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C342" t="s">
         <v>1746</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1748</v>
       </c>
       <c r="D342">
         <v>1982</v>
       </c>
       <c r="F342" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G342" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I342" t="s">
         <v>1749</v>
       </c>
-      <c r="H342" t="s">
+      <c r="J342" t="s">
         <v>1750</v>
-      </c>
-      <c r="I342" t="s">
-        <v>1751</v>
-      </c>
-      <c r="J342" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C343" t="s">
         <v>1484</v>
       </c>
-      <c r="B343" t="s">
+      <c r="D343" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G343" t="s">
         <v>1485</v>
       </c>
-      <c r="C343" t="s">
+      <c r="I343" t="s">
         <v>1486</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F343" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G343" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I343" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C344" t="s">
         <v>1489</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1491</v>
       </c>
       <c r="D344">
         <v>1982</v>
       </c>
       <c r="F344" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G344" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1491</v>
+      </c>
+      <c r="I344" t="s">
         <v>1492</v>
       </c>
-      <c r="H344" t="s">
-        <v>1493</v>
-      </c>
-      <c r="I344" t="s">
-        <v>1494</v>
-      </c>
       <c r="J344" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C345" t="s">
         <v>1495</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1497</v>
       </c>
       <c r="E345">
         <v>1992</v>
       </c>
       <c r="F345" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G345" t="s">
         <v>707</v>
@@ -14656,186 +14667,186 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C346" t="s">
         <v>1499</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1501</v>
       </c>
       <c r="D346">
         <v>1960</v>
       </c>
       <c r="F346" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G346" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="H346" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B347" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C347" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D347">
         <v>1987</v>
       </c>
       <c r="F347" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H347" t="s">
         <v>1756</v>
       </c>
-      <c r="G347" t="s">
+      <c r="J347" t="s">
         <v>1757</v>
-      </c>
-      <c r="H347" t="s">
-        <v>1758</v>
-      </c>
-      <c r="J347" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B348" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C348" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="E348">
         <v>1990</v>
       </c>
       <c r="F348" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H348" t="s">
         <v>1762</v>
-      </c>
-      <c r="G348" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H348" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B349" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C349" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="E349">
         <v>1990</v>
       </c>
       <c r="F349" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H349" t="s">
         <v>1762</v>
-      </c>
-      <c r="G349" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H349" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B350" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C350" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="D350">
         <v>1987</v>
       </c>
       <c r="F350" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G350" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H350" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J350" t="s">
         <v>1770</v>
-      </c>
-      <c r="H350" t="s">
-        <v>1771</v>
-      </c>
-      <c r="J350" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B351" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C351" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="D351">
         <v>1987</v>
       </c>
       <c r="F351" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G351" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H351" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J351" t="s">
         <v>1775</v>
-      </c>
-      <c r="H351" t="s">
-        <v>1776</v>
-      </c>
-      <c r="J351" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C352" t="s">
         <v>1778</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1780</v>
       </c>
       <c r="D352">
         <v>1987</v>
       </c>
       <c r="F352" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G352" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J352" t="s">
         <v>1781</v>
-      </c>
-      <c r="H352" t="s">
-        <v>1782</v>
-      </c>
-      <c r="J352" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C353" t="s">
         <v>1784</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1786</v>
       </c>
       <c r="E353">
         <v>1992</v>
@@ -14844,18 +14855,18 @@
         <v>335</v>
       </c>
       <c r="G353" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C354" t="s">
         <v>1509</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1511</v>
       </c>
       <c r="D354">
         <v>1975</v>
@@ -14864,21 +14875,21 @@
         <v>335</v>
       </c>
       <c r="G354" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="H354" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C355" t="s">
         <v>1514</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1516</v>
       </c>
       <c r="D355">
         <v>1961</v>
@@ -14887,21 +14898,21 @@
         <v>335</v>
       </c>
       <c r="G355" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="I355" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C356" t="s">
         <v>1519</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1521</v>
       </c>
       <c r="D356">
         <v>1975</v>
@@ -14910,18 +14921,18 @@
         <v>335</v>
       </c>
       <c r="G356" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C357" t="s">
         <v>1523</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1525</v>
       </c>
       <c r="E357">
         <v>1992</v>
@@ -14930,18 +14941,18 @@
         <v>335</v>
       </c>
       <c r="G357" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C358" t="s">
         <v>1527</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1529</v>
       </c>
       <c r="E358">
         <v>1993</v>
@@ -14950,18 +14961,18 @@
         <v>335</v>
       </c>
       <c r="G358" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C359" t="s">
         <v>1531</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1533</v>
       </c>
       <c r="D359">
         <v>1972</v>
@@ -14970,21 +14981,21 @@
         <v>335</v>
       </c>
       <c r="G359" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="I359" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C360" t="s">
         <v>1535</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1537</v>
       </c>
       <c r="D360">
         <v>1975</v>
@@ -14993,21 +15004,21 @@
         <v>335</v>
       </c>
       <c r="G360" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="H360" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C361" t="s">
         <v>1540</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1542</v>
       </c>
       <c r="D361">
         <v>1982</v>
@@ -15016,21 +15027,21 @@
         <v>335</v>
       </c>
       <c r="G361" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="H361" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C362" t="s">
         <v>1788</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1790</v>
       </c>
       <c r="E362">
         <v>1992</v>
@@ -15039,18 +15050,18 @@
         <v>335</v>
       </c>
       <c r="I362" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C363" t="s">
         <v>1545</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1547</v>
       </c>
       <c r="E363">
         <v>1982</v>
@@ -15059,38 +15070,41 @@
         <v>15</v>
       </c>
       <c r="G363" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H363" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="364" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C364" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="B364" s="5" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>1552</v>
+      <c r="E364" s="5">
+        <v>1964</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C365" t="s">
         <v>1554</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1556</v>
       </c>
       <c r="D365">
         <v>1956</v>
@@ -15099,21 +15113,21 @@
         <v>15</v>
       </c>
       <c r="G365" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C366" t="s">
         <v>1558</v>
       </c>
-      <c r="B366" t="s">
+      <c r="D366" t="s">
         <v>1559</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1561</v>
       </c>
       <c r="F366" t="s">
         <v>15</v>
@@ -15122,23 +15136,26 @@
         <v>707</v>
       </c>
       <c r="H366" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1563</v>
+        <v>1561</v>
+      </c>
+      <c r="E367">
+        <v>1963</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C368" t="s">
         <v>1564</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1566</v>
       </c>
       <c r="D368">
         <v>1954</v>
@@ -15147,18 +15164,18 @@
         <v>15</v>
       </c>
       <c r="G368" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C369" t="s">
         <v>1568</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1570</v>
       </c>
       <c r="E369">
         <v>1943</v>
@@ -15175,13 +15192,13 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C370" t="s">
         <v>1571</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1573</v>
       </c>
       <c r="D370">
         <v>1989</v>
@@ -15190,50 +15207,50 @@
         <v>43</v>
       </c>
       <c r="G370" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I370" t="s">
         <v>1574</v>
       </c>
-      <c r="H370" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I370" t="s">
-        <v>1576</v>
-      </c>
       <c r="J370" s="3" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C371" t="s">
         <v>1577</v>
       </c>
-      <c r="B371" t="s">
+      <c r="D371" t="s">
+        <v>879</v>
+      </c>
+      <c r="F371" t="s">
         <v>1578</v>
       </c>
-      <c r="C371" t="s">
+      <c r="G371" t="s">
         <v>1579</v>
       </c>
-      <c r="D371" t="s">
-        <v>881</v>
-      </c>
-      <c r="F371" t="s">
+      <c r="I371" t="s">
         <v>1580</v>
-      </c>
-      <c r="G371" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I371" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C372" t="s">
         <v>1583</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1585</v>
       </c>
       <c r="D372">
         <v>1993</v>
@@ -15242,24 +15259,24 @@
         <v>43</v>
       </c>
       <c r="G372" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="I372" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C373" t="s">
         <v>1588</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1590</v>
       </c>
       <c r="D373">
         <v>1934</v>
@@ -15268,7 +15285,7 @@
         <v>43</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
   </sheetData>

--- a/data/HIPS_Genotype_Information_2022_2023.xlsx
+++ b/data/HIPS_Genotype_Information_2022_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jensinadavis/Library/CloudStorage/GoogleDrive-davisjensina@gmail.com/My Drive/Schnable-Lab/HIPS/hips/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F982719-44A9-CA46-934D-79FF3020D7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC97951-74DF-FE43-9D95-28747CF7CBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,48 @@
     <sheet name="HIPS_Genotype_Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HIPS_Genotype_Information!$A$1:$CP$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HIPS_Genotype_Information!$A$1:$CP$375</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="J94" authorId="0" shapeId="0" xr:uid="{F4EAEA18-CD69-2047-8912-B066643D6178}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="1830">
   <si>
     <t>genotype</t>
   </si>
@@ -1531,12 +1565,6 @@
     <t>CO255</t>
   </si>
   <si>
-    <t>PI 693359</t>
-  </si>
-  <si>
-    <t>CO255/Ames 27107/NSSL 536284</t>
-  </si>
-  <si>
     <t>INRA 258 (double cross hybrid of (W33 x F115) x (F7 x EP1)</t>
   </si>
   <si>
@@ -3685,12 +3713,6 @@
     <t>P39</t>
   </si>
   <si>
-    <t>PI 587133</t>
-  </si>
-  <si>
-    <t>P39'/88:2258/Ames 20145/NSSL 426878</t>
-  </si>
-  <si>
     <t>Golden Bantam</t>
   </si>
   <si>
@@ -4952,12 +4974,6 @@
   </si>
   <si>
     <t>Krug - Nebraska Reid strain x Iowa Gold Mine</t>
-  </si>
-  <si>
-    <t>PI 694048</t>
-  </si>
-  <si>
-    <t>CI 91B/NSSL 15329/Cize 91</t>
   </si>
   <si>
     <t>L97 x A71</t>
@@ -5489,12 +5505,60 @@
   <si>
     <t>LP1/NSSL 108313/LP1</t>
   </si>
+  <si>
+    <t>PI 693386</t>
+  </si>
+  <si>
+    <t>CI 91B Goodman-Buckler/Separation from Cize 91/Ames28365/NSSL 536286/3114-2</t>
+  </si>
+  <si>
+    <t>Blight resistant. This line was part of a list of 30 yellow lines reported in the "1954 Final Report of the Corn Improvement Conference of the North Central Region" as being resistant to Helminthosporium turcicum and Helminthosporium maydis. This set of 30 lines were developed by crossing southern lines resistant to Helminthosporium and earlier lines some of which also carried appreciable resistance. The single crosses were selfed and resistant plants were intercrossed for two generations followed by two more generations of selfing with selection for resistance. Sub-lines originating from different selfed plants following the two generations of intercrossing were differentiated by using the A, B, and C suffixes. This version of CI.90B was maintaned by M. Goodman and designated as part of a diversity set of maize inbreds by E. Buckler et. al.</t>
+  </si>
+  <si>
+    <t>Ames 27050</t>
+  </si>
+  <si>
+    <t>CO255/Ames 27050/PGR 8403/NSSL 426743</t>
+  </si>
+  <si>
+    <t>Agriculture Canada, Research Branch</t>
+  </si>
+  <si>
+    <t>IL101T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI 693367 </t>
+  </si>
+  <si>
+    <t>Ames 27119/Il 101T/Il101T/NSSL426797</t>
+  </si>
+  <si>
+    <t>K148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI 693369 </t>
+  </si>
+  <si>
+    <t>Ames 27122/1745-2/NSSL426800</t>
+  </si>
+  <si>
+    <t>Yellow Selection No. 1 (Pride of Saline, yellow strain)</t>
+  </si>
+  <si>
+    <t>K148 is a fairly early yellow inbred line selected from a yellow Pride of Saline strain of corn. Plants are dark green in color and very drought resistant. Grain is light yellow in color and cobs are white. It contributes to hybrids high yield, drought resistance, resistance to ear dropping, a low shelling percentage and in some combinations weak roots. It is usually used as a seed parent in single cross production. It was used in K1639. It is not closely related to other inbreds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI 690333 </t>
+  </si>
+  <si>
+    <t>P39 Goodman-Buckler'/663-3/Ames 28186/05A 0308 51A/NSSL 531806</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5649,8 +5713,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5830,12 +5907,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -5998,16 +6069,17 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6383,12 +6455,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J373"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G375" sqref="G375"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6417,7 +6489,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -6460,10 +6532,10 @@
         <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C3" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D3">
         <v>1983</v>
@@ -6472,13 +6544,13 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I3" t="s">
         <v>313</v>
       </c>
       <c r="J3" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6760,10 +6832,10 @@
         <v>78004</v>
       </c>
       <c r="B15" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C15" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D15">
         <v>1985</v>
@@ -6778,7 +6850,7 @@
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -6830,7 +6902,7 @@
         <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -6859,7 +6931,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -6885,7 +6957,7 @@
         <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -6951,7 +7023,7 @@
         <v>66</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -6977,7 +7049,7 @@
         <v>66</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -7029,7 +7101,7 @@
         <v>66</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -7080,13 +7152,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B28" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E28">
         <v>1965</v>
@@ -7095,10 +7167,10 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H28" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -7218,13 +7290,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B34" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C34" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D34">
         <v>1956</v>
@@ -7233,7 +7305,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="I34" t="s">
         <v>120</v>
@@ -7241,22 +7313,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F35" t="s">
         <v>1607</v>
       </c>
-      <c r="B35" t="s">
+      <c r="G35" t="s">
         <v>1608</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7615,13 +7687,13 @@
         <v>210</v>
       </c>
       <c r="H51" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="I51" t="s">
         <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -7687,7 +7759,7 @@
         <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -7774,7 +7846,7 @@
         <v>221</v>
       </c>
       <c r="J57" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -7803,7 +7875,7 @@
         <v>246</v>
       </c>
       <c r="J58" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -7832,7 +7904,7 @@
         <v>221</v>
       </c>
       <c r="J59" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -7889,13 +7961,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B62" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="C62" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="E62">
         <v>1968</v>
@@ -7904,10 +7976,10 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="H62" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -7985,7 +8057,7 @@
         <v>266</v>
       </c>
       <c r="J65" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -8014,7 +8086,7 @@
         <v>282</v>
       </c>
       <c r="J66" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -8121,7 +8193,7 @@
         <v>303</v>
       </c>
       <c r="J70" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -8152,7 +8224,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="B72" t="s">
         <v>310</v>
@@ -8207,7 +8279,7 @@
         <v>322</v>
       </c>
       <c r="D74" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F74" t="s">
         <v>30</v>
@@ -8227,7 +8299,7 @@
         <v>326</v>
       </c>
       <c r="D75" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F75" t="s">
         <v>21</v>
@@ -8247,7 +8319,7 @@
         <v>330</v>
       </c>
       <c r="D76" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F76" t="s">
         <v>21</v>
@@ -8261,13 +8333,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="B77" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="C77" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="D77">
         <v>1948</v>
@@ -8276,35 +8348,35 @@
         <v>84</v>
       </c>
       <c r="G77" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="I77" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="6">
         <v>1939</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8313,10 +8385,10 @@
         <v>339</v>
       </c>
       <c r="B79" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C79" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="D79">
         <v>1948</v>
@@ -8325,10 +8397,10 @@
         <v>335</v>
       </c>
       <c r="G79" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="H79" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -8354,7 +8426,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -8374,7 +8446,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>350</v>
       </c>
@@ -8394,15 +8466,15 @@
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B83" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C83" t="s">
         <v>1633</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1637</v>
       </c>
       <c r="D83">
         <v>1945</v>
@@ -8411,16 +8483,16 @@
         <v>84</v>
       </c>
       <c r="G83" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="H83" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="I83" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>354</v>
       </c>
@@ -8440,7 +8512,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>358</v>
       </c>
@@ -8466,7 +8538,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>363</v>
       </c>
@@ -8483,30 +8555,30 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>366</v>
       </c>
       <c r="B87" t="s">
-        <v>1643</v>
+        <v>1814</v>
       </c>
       <c r="C87" t="s">
-        <v>1644</v>
+        <v>1815</v>
       </c>
       <c r="D87">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="F87" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
       <c r="G87" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="H87" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>367</v>
       </c>
@@ -8526,7 +8598,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>372</v>
       </c>
@@ -8549,7 +8621,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>377</v>
       </c>
@@ -8572,7 +8644,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>381</v>
       </c>
@@ -8592,7 +8664,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>386</v>
       </c>
@@ -8612,7 +8684,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>390</v>
       </c>
@@ -8632,7 +8704,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -8652,50 +8724,50 @@
         <v>397</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>398</v>
       </c>
       <c r="B95" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="C95" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="D95" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F95" t="s">
         <v>384</v>
       </c>
       <c r="G95" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="H95" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="B96" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="C96" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="D96" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F96" t="s">
         <v>384</v>
       </c>
       <c r="G96" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="H96" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -8836,10 +8908,10 @@
         <v>428</v>
       </c>
       <c r="I102" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="J102" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -8865,10 +8937,10 @@
         <v>433</v>
       </c>
       <c r="I103" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="J103" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -8882,7 +8954,7 @@
         <v>436</v>
       </c>
       <c r="D104" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F104" t="s">
         <v>384</v>
@@ -8917,10 +8989,10 @@
         <v>442</v>
       </c>
       <c r="I105" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="J105" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -8934,7 +9006,7 @@
         <v>445</v>
       </c>
       <c r="D106" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F106" t="s">
         <v>384</v>
@@ -8957,7 +9029,7 @@
         <v>450</v>
       </c>
       <c r="D107" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F107" t="s">
         <v>384</v>
@@ -8977,7 +9049,7 @@
         <v>454</v>
       </c>
       <c r="D108" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F108" t="s">
         <v>384</v>
@@ -9000,7 +9072,7 @@
         <v>459</v>
       </c>
       <c r="D109" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F109" t="s">
         <v>384</v>
@@ -9023,7 +9095,7 @@
         <v>464</v>
       </c>
       <c r="D110" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F110" t="s">
         <v>384</v>
@@ -9046,7 +9118,7 @@
         <v>469</v>
       </c>
       <c r="D111" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F111" t="s">
         <v>384</v>
@@ -9069,7 +9141,7 @@
         <v>474</v>
       </c>
       <c r="D112" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F112" t="s">
         <v>384</v>
@@ -9098,33 +9170,33 @@
         <v>479</v>
       </c>
       <c r="I113" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="J113" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="B114" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="C114" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="D114" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F114" t="s">
         <v>384</v>
       </c>
       <c r="G114" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="H114" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -9147,33 +9219,33 @@
         <v>483</v>
       </c>
       <c r="I115" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="J115" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="B116" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="C116" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="D116" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F116" t="s">
         <v>384</v>
       </c>
       <c r="G116" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="H116" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -9187,7 +9259,7 @@
         <v>486</v>
       </c>
       <c r="D117" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="F117" t="s">
         <v>384</v>
@@ -9207,7 +9279,7 @@
         <v>490</v>
       </c>
       <c r="D118" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F118" t="s">
         <v>384</v>
@@ -9230,7 +9302,7 @@
         <v>495</v>
       </c>
       <c r="D119" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F119" t="s">
         <v>384</v>
@@ -9244,25 +9316,25 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="B120" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="C120" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="D120" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="F120" t="s">
         <v>370</v>
       </c>
       <c r="G120" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="H120" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I120" t="s">
         <v>376</v>
@@ -9270,13 +9342,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="B121" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="C121" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="D121">
         <v>1958</v>
@@ -9285,7 +9357,7 @@
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -9299,44 +9371,44 @@
         <v>500</v>
       </c>
       <c r="D122" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E123" s="6">
+        <v>2003</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>505</v>
+      <c r="I123" s="6" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>504</v>
+      </c>
+      <c r="B124" t="s">
+        <v>505</v>
+      </c>
+      <c r="C124" t="s">
         <v>506</v>
-      </c>
-      <c r="B124" t="s">
-        <v>507</v>
-      </c>
-      <c r="C124" t="s">
-        <v>508</v>
       </c>
       <c r="D124">
         <v>1993</v>
@@ -9345,18 +9417,18 @@
         <v>49</v>
       </c>
       <c r="G124" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>508</v>
+      </c>
+      <c r="B125" t="s">
+        <v>509</v>
+      </c>
+      <c r="C125" t="s">
         <v>510</v>
-      </c>
-      <c r="B125" t="s">
-        <v>511</v>
-      </c>
-      <c r="C125" t="s">
-        <v>512</v>
       </c>
       <c r="D125">
         <v>1989</v>
@@ -9365,18 +9437,18 @@
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>512</v>
+      </c>
+      <c r="B126" t="s">
+        <v>513</v>
+      </c>
+      <c r="C126" t="s">
         <v>514</v>
-      </c>
-      <c r="B126" t="s">
-        <v>515</v>
-      </c>
-      <c r="C126" t="s">
-        <v>516</v>
       </c>
       <c r="D126">
         <v>1983</v>
@@ -9385,18 +9457,18 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>516</v>
+      </c>
+      <c r="B127" t="s">
+        <v>517</v>
+      </c>
+      <c r="C127" t="s">
         <v>518</v>
-      </c>
-      <c r="B127" t="s">
-        <v>519</v>
-      </c>
-      <c r="C127" t="s">
-        <v>520</v>
       </c>
       <c r="D127">
         <v>1991</v>
@@ -9405,122 +9477,122 @@
         <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>520</v>
+      </c>
+      <c r="B128" t="s">
+        <v>521</v>
+      </c>
+      <c r="C128" t="s">
         <v>522</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F128" t="s">
         <v>523</v>
       </c>
-      <c r="C128" t="s">
+      <c r="G128" t="s">
         <v>524</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F128" t="s">
-        <v>525</v>
-      </c>
-      <c r="G128" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B129" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="C129" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="D129">
         <v>1999</v>
       </c>
       <c r="F129" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G129" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="H129" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="I129" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="J129" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>526</v>
+      </c>
+      <c r="B130" t="s">
+        <v>527</v>
+      </c>
+      <c r="C130" t="s">
         <v>528</v>
-      </c>
-      <c r="B130" t="s">
-        <v>529</v>
-      </c>
-      <c r="C130" t="s">
-        <v>530</v>
       </c>
       <c r="D130">
         <v>1999</v>
       </c>
       <c r="F130" t="s">
+        <v>529</v>
+      </c>
+      <c r="G130" t="s">
+        <v>530</v>
+      </c>
+      <c r="H130" t="s">
         <v>531</v>
       </c>
-      <c r="G130" t="s">
-        <v>532</v>
-      </c>
-      <c r="H130" t="s">
-        <v>533</v>
-      </c>
       <c r="J130" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>532</v>
+      </c>
+      <c r="B131" t="s">
+        <v>533</v>
+      </c>
+      <c r="C131" t="s">
         <v>534</v>
-      </c>
-      <c r="B131" t="s">
-        <v>535</v>
-      </c>
-      <c r="C131" t="s">
-        <v>536</v>
       </c>
       <c r="D131">
         <v>1985</v>
       </c>
       <c r="F131" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G131" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H131" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I131" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="J131" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>537</v>
+      </c>
+      <c r="B132" t="s">
+        <v>538</v>
+      </c>
+      <c r="C132" t="s">
         <v>539</v>
-      </c>
-      <c r="B132" t="s">
-        <v>540</v>
-      </c>
-      <c r="C132" t="s">
-        <v>541</v>
       </c>
       <c r="D132">
         <v>1985</v>
@@ -9529,38 +9601,38 @@
         <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>541</v>
+      </c>
+      <c r="B133" t="s">
+        <v>542</v>
+      </c>
+      <c r="C133" t="s">
         <v>543</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F133" t="s">
         <v>544</v>
       </c>
-      <c r="C133" t="s">
+      <c r="G133" t="s">
         <v>545</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F133" t="s">
-        <v>546</v>
-      </c>
-      <c r="G133" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>546</v>
+      </c>
+      <c r="B134" t="s">
+        <v>547</v>
+      </c>
+      <c r="C134" t="s">
         <v>548</v>
-      </c>
-      <c r="B134" t="s">
-        <v>549</v>
-      </c>
-      <c r="C134" t="s">
-        <v>550</v>
       </c>
       <c r="D134">
         <v>1988</v>
@@ -9569,41 +9641,41 @@
         <v>49</v>
       </c>
       <c r="G134" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>550</v>
+      </c>
+      <c r="B135" t="s">
+        <v>551</v>
+      </c>
+      <c r="C135" t="s">
         <v>552</v>
-      </c>
-      <c r="B135" t="s">
-        <v>553</v>
-      </c>
-      <c r="C135" t="s">
-        <v>554</v>
       </c>
       <c r="D135">
         <v>1959</v>
       </c>
       <c r="F135" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G135" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>555</v>
+      </c>
+      <c r="B136" t="s">
+        <v>556</v>
+      </c>
+      <c r="C136" t="s">
         <v>557</v>
-      </c>
-      <c r="B136" t="s">
-        <v>558</v>
-      </c>
-      <c r="C136" t="s">
-        <v>559</v>
       </c>
       <c r="D136">
         <v>1991</v>
@@ -9612,44 +9684,44 @@
         <v>49</v>
       </c>
       <c r="G136" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I136" t="s">
         <v>66</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>559</v>
+      </c>
+      <c r="B137" t="s">
+        <v>560</v>
+      </c>
+      <c r="C137" t="s">
         <v>561</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F137" t="s">
+        <v>544</v>
+      </c>
+      <c r="G137" t="s">
         <v>562</v>
-      </c>
-      <c r="C137" t="s">
-        <v>563</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F137" t="s">
-        <v>546</v>
-      </c>
-      <c r="G137" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>563</v>
+      </c>
+      <c r="B138" t="s">
+        <v>564</v>
+      </c>
+      <c r="C138" t="s">
         <v>565</v>
-      </c>
-      <c r="B138" t="s">
-        <v>566</v>
-      </c>
-      <c r="C138" t="s">
-        <v>567</v>
       </c>
       <c r="D138">
         <v>1983</v>
@@ -9658,64 +9730,64 @@
         <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I138" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="B139" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="C139" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="E139">
         <v>1987</v>
       </c>
       <c r="F139" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>568</v>
+      </c>
+      <c r="B140" t="s">
+        <v>569</v>
+      </c>
+      <c r="C140" t="s">
         <v>570</v>
-      </c>
-      <c r="B140" t="s">
-        <v>571</v>
-      </c>
-      <c r="C140" t="s">
-        <v>572</v>
       </c>
       <c r="E140">
         <v>1959</v>
       </c>
       <c r="F140" t="s">
+        <v>571</v>
+      </c>
+      <c r="G140" t="s">
+        <v>572</v>
+      </c>
+      <c r="H140" t="s">
         <v>573</v>
-      </c>
-      <c r="G140" t="s">
-        <v>574</v>
-      </c>
-      <c r="H140" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>574</v>
+      </c>
+      <c r="B141" t="s">
+        <v>575</v>
+      </c>
+      <c r="C141" t="s">
         <v>576</v>
-      </c>
-      <c r="B141" t="s">
-        <v>577</v>
-      </c>
-      <c r="C141" t="s">
-        <v>578</v>
       </c>
       <c r="D141">
         <v>1982</v>
@@ -9724,24 +9796,24 @@
         <v>49</v>
       </c>
       <c r="G141" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I141" t="s">
         <v>66</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>578</v>
+      </c>
+      <c r="B142" t="s">
+        <v>579</v>
+      </c>
+      <c r="C142" t="s">
         <v>580</v>
-      </c>
-      <c r="B142" t="s">
-        <v>581</v>
-      </c>
-      <c r="C142" t="s">
-        <v>582</v>
       </c>
       <c r="D142">
         <v>1987</v>
@@ -9750,24 +9822,24 @@
         <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I142" t="s">
         <v>66</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>582</v>
+      </c>
+      <c r="B143" t="s">
+        <v>583</v>
+      </c>
+      <c r="C143" t="s">
         <v>584</v>
-      </c>
-      <c r="B143" t="s">
-        <v>585</v>
-      </c>
-      <c r="C143" t="s">
-        <v>586</v>
       </c>
       <c r="D143">
         <v>1990</v>
@@ -9776,7 +9848,7 @@
         <v>49</v>
       </c>
       <c r="G143" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I143" t="s">
         <v>66</v>
@@ -9784,13 +9856,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>586</v>
+      </c>
+      <c r="B144" t="s">
+        <v>587</v>
+      </c>
+      <c r="C144" t="s">
         <v>588</v>
-      </c>
-      <c r="B144" t="s">
-        <v>589</v>
-      </c>
-      <c r="C144" t="s">
-        <v>590</v>
       </c>
       <c r="D144">
         <v>1979</v>
@@ -9799,21 +9871,21 @@
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I144" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>591</v>
+      </c>
+      <c r="B145" t="s">
+        <v>592</v>
+      </c>
+      <c r="C145" t="s">
         <v>593</v>
-      </c>
-      <c r="B145" t="s">
-        <v>594</v>
-      </c>
-      <c r="C145" t="s">
-        <v>595</v>
       </c>
       <c r="D145">
         <v>1984</v>
@@ -9822,50 +9894,50 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H145" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I145" t="s">
         <v>313</v>
       </c>
       <c r="J145" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>597</v>
+      </c>
+      <c r="B146" t="s">
+        <v>598</v>
+      </c>
+      <c r="C146" t="s">
         <v>599</v>
-      </c>
-      <c r="B146" t="s">
-        <v>600</v>
-      </c>
-      <c r="C146" t="s">
-        <v>601</v>
       </c>
       <c r="D146">
         <v>1972</v>
       </c>
       <c r="F146" t="s">
+        <v>600</v>
+      </c>
+      <c r="G146" t="s">
+        <v>601</v>
+      </c>
+      <c r="I146" t="s">
         <v>602</v>
-      </c>
-      <c r="G146" t="s">
-        <v>603</v>
-      </c>
-      <c r="I146" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>603</v>
+      </c>
+      <c r="B147" t="s">
+        <v>604</v>
+      </c>
+      <c r="C147" t="s">
         <v>605</v>
-      </c>
-      <c r="B147" t="s">
-        <v>606</v>
-      </c>
-      <c r="C147" t="s">
-        <v>607</v>
       </c>
       <c r="E147">
         <v>1993</v>
@@ -9874,18 +9946,18 @@
         <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>607</v>
+      </c>
+      <c r="B148" t="s">
+        <v>608</v>
+      </c>
+      <c r="C148" t="s">
         <v>609</v>
-      </c>
-      <c r="B148" t="s">
-        <v>610</v>
-      </c>
-      <c r="C148" t="s">
-        <v>611</v>
       </c>
       <c r="D148">
         <v>1959</v>
@@ -9894,10 +9966,10 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H148" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I148" t="s">
         <v>12</v>
@@ -9905,13 +9977,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>611</v>
+      </c>
+      <c r="B149" t="s">
+        <v>612</v>
+      </c>
+      <c r="C149" t="s">
         <v>613</v>
-      </c>
-      <c r="B149" t="s">
-        <v>614</v>
-      </c>
-      <c r="C149" t="s">
-        <v>615</v>
       </c>
       <c r="E149">
         <v>1991</v>
@@ -9920,18 +9992,18 @@
         <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>615</v>
+      </c>
+      <c r="B150" t="s">
+        <v>616</v>
+      </c>
+      <c r="C150" t="s">
         <v>617</v>
-      </c>
-      <c r="B150" t="s">
-        <v>618</v>
-      </c>
-      <c r="C150" t="s">
-        <v>619</v>
       </c>
       <c r="D150">
         <v>1988</v>
@@ -9940,7 +10012,7 @@
         <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -9948,33 +10020,33 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>619</v>
+      </c>
+      <c r="B151" t="s">
+        <v>620</v>
+      </c>
+      <c r="C151" t="s">
         <v>621</v>
       </c>
-      <c r="B151" t="s">
-        <v>622</v>
-      </c>
-      <c r="C151" t="s">
-        <v>623</v>
-      </c>
       <c r="D151" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>623</v>
+      </c>
+      <c r="B152" t="s">
+        <v>624</v>
+      </c>
+      <c r="C152" t="s">
         <v>625</v>
-      </c>
-      <c r="B152" t="s">
-        <v>626</v>
-      </c>
-      <c r="C152" t="s">
-        <v>627</v>
       </c>
       <c r="D152">
         <v>1968</v>
@@ -9983,18 +10055,18 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>627</v>
+      </c>
+      <c r="B153" t="s">
+        <v>628</v>
+      </c>
+      <c r="C153" t="s">
         <v>629</v>
-      </c>
-      <c r="B153" t="s">
-        <v>630</v>
-      </c>
-      <c r="C153" t="s">
-        <v>631</v>
       </c>
       <c r="E153">
         <v>1991</v>
@@ -10003,18 +10075,18 @@
         <v>11</v>
       </c>
       <c r="G153" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>631</v>
+      </c>
+      <c r="B154" t="s">
+        <v>632</v>
+      </c>
+      <c r="C154" t="s">
         <v>633</v>
-      </c>
-      <c r="B154" t="s">
-        <v>634</v>
-      </c>
-      <c r="C154" t="s">
-        <v>635</v>
       </c>
       <c r="D154">
         <v>1988</v>
@@ -10023,7 +10095,7 @@
         <v>49</v>
       </c>
       <c r="G154" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I154" t="s">
         <v>66</v>
@@ -10031,13 +10103,13 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>635</v>
+      </c>
+      <c r="B155" t="s">
+        <v>636</v>
+      </c>
+      <c r="C155" t="s">
         <v>637</v>
-      </c>
-      <c r="B155" t="s">
-        <v>638</v>
-      </c>
-      <c r="C155" t="s">
-        <v>639</v>
       </c>
       <c r="D155">
         <v>1985</v>
@@ -10046,7 +10118,7 @@
         <v>105</v>
       </c>
       <c r="G155" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I155" t="s">
         <v>66</v>
@@ -10054,39 +10126,39 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>639</v>
+      </c>
+      <c r="B156" t="s">
+        <v>640</v>
+      </c>
+      <c r="C156" t="s">
         <v>641</v>
-      </c>
-      <c r="B156" t="s">
-        <v>642</v>
-      </c>
-      <c r="C156" t="s">
-        <v>643</v>
       </c>
       <c r="D156">
         <v>1975</v>
       </c>
       <c r="F156" t="s">
+        <v>642</v>
+      </c>
+      <c r="G156" t="s">
+        <v>643</v>
+      </c>
+      <c r="H156" t="s">
         <v>644</v>
       </c>
-      <c r="G156" t="s">
+      <c r="I156" t="s">
         <v>645</v>
-      </c>
-      <c r="H156" t="s">
-        <v>646</v>
-      </c>
-      <c r="I156" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>646</v>
+      </c>
+      <c r="B157" t="s">
+        <v>647</v>
+      </c>
+      <c r="C157" t="s">
         <v>648</v>
-      </c>
-      <c r="B157" t="s">
-        <v>649</v>
-      </c>
-      <c r="C157" t="s">
-        <v>650</v>
       </c>
       <c r="E157">
         <v>1992</v>
@@ -10095,7 +10167,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I157" t="s">
         <v>53</v>
@@ -10103,13 +10175,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>650</v>
+      </c>
+      <c r="B158" t="s">
+        <v>651</v>
+      </c>
+      <c r="C158" t="s">
         <v>652</v>
-      </c>
-      <c r="B158" t="s">
-        <v>653</v>
-      </c>
-      <c r="C158" t="s">
-        <v>654</v>
       </c>
       <c r="E158">
         <v>1945</v>
@@ -10120,33 +10192,33 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>653</v>
+      </c>
+      <c r="B159" t="s">
+        <v>654</v>
+      </c>
+      <c r="C159" t="s">
         <v>655</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F159" t="s">
+        <v>544</v>
+      </c>
+      <c r="G159" t="s">
         <v>656</v>
-      </c>
-      <c r="C159" t="s">
-        <v>657</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F159" t="s">
-        <v>546</v>
-      </c>
-      <c r="G159" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="B160" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="C160" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="E160">
         <v>1998</v>
@@ -10155,47 +10227,47 @@
         <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="I160" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>657</v>
+      </c>
+      <c r="B161" t="s">
+        <v>658</v>
+      </c>
+      <c r="C161" t="s">
         <v>659</v>
       </c>
-      <c r="B161" t="s">
-        <v>660</v>
-      </c>
-      <c r="C161" t="s">
-        <v>661</v>
-      </c>
       <c r="D161" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F161" t="s">
         <v>343</v>
       </c>
       <c r="G161" t="s">
+        <v>660</v>
+      </c>
+      <c r="H161" t="s">
+        <v>661</v>
+      </c>
+      <c r="I161" t="s">
         <v>662</v>
-      </c>
-      <c r="H161" t="s">
-        <v>663</v>
-      </c>
-      <c r="I161" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>663</v>
+      </c>
+      <c r="B162" t="s">
+        <v>664</v>
+      </c>
+      <c r="C162" t="s">
         <v>665</v>
-      </c>
-      <c r="B162" t="s">
-        <v>666</v>
-      </c>
-      <c r="C162" t="s">
-        <v>667</v>
       </c>
       <c r="E162">
         <v>1993</v>
@@ -10204,18 +10276,18 @@
         <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>667</v>
+      </c>
+      <c r="B163" t="s">
+        <v>668</v>
+      </c>
+      <c r="C163" t="s">
         <v>669</v>
-      </c>
-      <c r="B163" t="s">
-        <v>670</v>
-      </c>
-      <c r="C163" t="s">
-        <v>671</v>
       </c>
       <c r="E163">
         <v>1993</v>
@@ -10224,24 +10296,24 @@
         <v>43</v>
       </c>
       <c r="G163" t="s">
+        <v>670</v>
+      </c>
+      <c r="H163" t="s">
+        <v>671</v>
+      </c>
+      <c r="I163" t="s">
         <v>672</v>
-      </c>
-      <c r="H163" t="s">
-        <v>673</v>
-      </c>
-      <c r="I163" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="B164" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C164" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D164">
         <v>1991</v>
@@ -10250,1468 +10322,1450 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I164" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>677</v>
+      </c>
+      <c r="B165" t="s">
+        <v>678</v>
+      </c>
+      <c r="C165" t="s">
         <v>679</v>
       </c>
-      <c r="B165" t="s">
-        <v>680</v>
-      </c>
-      <c r="C165" t="s">
-        <v>681</v>
-      </c>
       <c r="D165" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="F165" t="s">
         <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I165" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>682</v>
+      </c>
+      <c r="B166" t="s">
+        <v>683</v>
+      </c>
+      <c r="C166" t="s">
         <v>684</v>
       </c>
-      <c r="B166" t="s">
-        <v>685</v>
-      </c>
-      <c r="C166" t="s">
-        <v>686</v>
-      </c>
       <c r="D166" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="F166" t="s">
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H166" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I166" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>687</v>
+      </c>
+      <c r="B167" t="s">
+        <v>688</v>
+      </c>
+      <c r="C167" t="s">
         <v>689</v>
       </c>
-      <c r="B167" t="s">
-        <v>690</v>
-      </c>
-      <c r="C167" t="s">
-        <v>691</v>
-      </c>
       <c r="D167" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="F167" t="s">
         <v>43</v>
       </c>
       <c r="G167" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I167" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>692</v>
+        <v>1820</v>
       </c>
       <c r="B168" t="s">
-        <v>693</v>
+        <v>1821</v>
       </c>
       <c r="C168" t="s">
-        <v>694</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1703</v>
+        <v>1822</v>
+      </c>
+      <c r="D168">
+        <v>1940</v>
       </c>
       <c r="F168" t="s">
         <v>49</v>
       </c>
-      <c r="H168" t="s">
-        <v>695</v>
-      </c>
-      <c r="I168" t="s">
-        <v>696</v>
-      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B169" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C169" t="s">
-        <v>699</v>
-      </c>
-      <c r="E169">
-        <v>2003</v>
+        <v>692</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1697</v>
       </c>
       <c r="F169" t="s">
         <v>49</v>
       </c>
-      <c r="G169" t="s">
-        <v>700</v>
-      </c>
       <c r="H169" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="I169" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B170" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C170" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E170">
-        <v>1963</v>
+        <v>2003</v>
       </c>
       <c r="F170" t="s">
-        <v>706</v>
+        <v>49</v>
       </c>
       <c r="G170" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H170" t="s">
-        <v>708</v>
+        <v>699</v>
+      </c>
+      <c r="I170" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>709</v>
+        <v>1823</v>
       </c>
       <c r="B171" t="s">
-        <v>710</v>
+        <v>1824</v>
       </c>
       <c r="C171" t="s">
-        <v>711</v>
-      </c>
-      <c r="E171">
-        <v>1946</v>
+        <v>1825</v>
+      </c>
+      <c r="D171">
+        <v>1940</v>
       </c>
       <c r="F171" t="s">
-        <v>105</v>
+        <v>704</v>
       </c>
       <c r="G171" t="s">
-        <v>712</v>
+        <v>1826</v>
       </c>
       <c r="H171" t="s">
-        <v>713</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B172" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C172" t="s">
-        <v>716</v>
-      </c>
-      <c r="D172" t="s">
-        <v>717</v>
+        <v>703</v>
+      </c>
+      <c r="E172">
+        <v>1963</v>
       </c>
       <c r="F172" t="s">
+        <v>704</v>
+      </c>
+      <c r="G172" t="s">
+        <v>705</v>
+      </c>
+      <c r="H172" t="s">
         <v>706</v>
-      </c>
-      <c r="G172" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B173" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C173" t="s">
-        <v>721</v>
-      </c>
-      <c r="D173" t="s">
-        <v>722</v>
+        <v>709</v>
+      </c>
+      <c r="E173">
+        <v>1946</v>
       </c>
       <c r="F173" t="s">
-        <v>706</v>
+        <v>105</v>
       </c>
       <c r="G173" t="s">
-        <v>718</v>
+        <v>710</v>
+      </c>
+      <c r="H173" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B174" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="C174" t="s">
-        <v>725</v>
-      </c>
-      <c r="D174">
-        <v>1982</v>
+        <v>714</v>
+      </c>
+      <c r="D174" t="s">
+        <v>715</v>
       </c>
       <c r="F174" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="G174" t="s">
-        <v>727</v>
-      </c>
-      <c r="I174" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="B175" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C175" t="s">
-        <v>731</v>
-      </c>
-      <c r="D175">
-        <v>1982</v>
+        <v>719</v>
+      </c>
+      <c r="D175" t="s">
+        <v>720</v>
       </c>
       <c r="F175" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="G175" t="s">
-        <v>732</v>
-      </c>
-      <c r="I175" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="B176" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C176" t="s">
-        <v>735</v>
-      </c>
-      <c r="E176">
-        <v>2003</v>
+        <v>723</v>
+      </c>
+      <c r="D176">
+        <v>1982</v>
       </c>
       <c r="F176" t="s">
+        <v>724</v>
+      </c>
+      <c r="G176" t="s">
+        <v>725</v>
+      </c>
+      <c r="I176" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1704</v>
+        <v>727</v>
       </c>
       <c r="B177" t="s">
-        <v>1705</v>
+        <v>728</v>
       </c>
       <c r="C177" t="s">
-        <v>1706</v>
+        <v>729</v>
       </c>
       <c r="D177">
-        <v>1992</v>
+        <v>1982</v>
       </c>
       <c r="F177" t="s">
+        <v>724</v>
+      </c>
+      <c r="G177" t="s">
+        <v>730</v>
+      </c>
+      <c r="I177" t="s">
         <v>726</v>
-      </c>
-      <c r="G177" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B178" t="s">
-        <v>1708</v>
+        <v>732</v>
       </c>
       <c r="C178" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1710</v>
+        <v>733</v>
+      </c>
+      <c r="E178">
+        <v>2003</v>
       </c>
       <c r="F178" t="s">
-        <v>706</v>
-      </c>
-      <c r="H178" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>737</v>
+        <v>1698</v>
       </c>
       <c r="B179" t="s">
-        <v>738</v>
+        <v>1699</v>
       </c>
       <c r="C179" t="s">
-        <v>739</v>
-      </c>
-      <c r="E179">
-        <v>2003</v>
+        <v>1700</v>
+      </c>
+      <c r="D179">
+        <v>1992</v>
       </c>
       <c r="F179" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G179" t="s">
-        <v>707</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B180" t="s">
-        <v>742</v>
+        <v>1702</v>
       </c>
       <c r="C180" t="s">
-        <v>743</v>
-      </c>
-      <c r="D180">
-        <v>1966</v>
+        <v>1703</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1704</v>
       </c>
       <c r="F180" t="s">
-        <v>740</v>
-      </c>
-      <c r="G180" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="H180" t="s">
-        <v>745</v>
+        <v>706</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B181" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="C181" t="s">
-        <v>748</v>
-      </c>
-      <c r="D181">
-        <v>1967</v>
+        <v>737</v>
+      </c>
+      <c r="E181">
+        <v>2003</v>
       </c>
       <c r="F181" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G181" t="s">
-        <v>718</v>
-      </c>
-      <c r="H181" t="s">
-        <v>749</v>
+        <v>705</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="B182" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C182" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="D182">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="F182" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="G182" t="s">
-        <v>754</v>
-      </c>
-      <c r="I182" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+      <c r="H182" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1711</v>
+        <v>744</v>
       </c>
       <c r="B183" t="s">
-        <v>1712</v>
+        <v>745</v>
       </c>
       <c r="C183" t="s">
-        <v>1713</v>
+        <v>746</v>
       </c>
       <c r="D183">
-        <v>1934</v>
+        <v>1967</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>1714</v>
+        <v>738</v>
+      </c>
+      <c r="G183" t="s">
+        <v>716</v>
       </c>
       <c r="H183" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I183" t="s">
-        <v>674</v>
+        <v>747</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B184" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C184" t="s">
-        <v>758</v>
-      </c>
-      <c r="E184">
-        <v>1943</v>
+        <v>750</v>
+      </c>
+      <c r="D184">
+        <v>1987</v>
       </c>
       <c r="F184" t="s">
+        <v>751</v>
+      </c>
+      <c r="G184" t="s">
+        <v>752</v>
+      </c>
+      <c r="I184" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D185">
+        <v>1934</v>
+      </c>
+      <c r="F185" t="s">
         <v>43</v>
       </c>
-      <c r="G184" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>760</v>
-      </c>
-      <c r="B185" t="s">
-        <v>761</v>
-      </c>
-      <c r="C185" t="s">
-        <v>762</v>
-      </c>
-      <c r="E185">
-        <v>1946</v>
-      </c>
-      <c r="F185" t="s">
-        <v>763</v>
-      </c>
-      <c r="G185" t="s">
-        <v>707</v>
+      <c r="G185" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I185" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B186" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="C186" t="s">
-        <v>767</v>
-      </c>
-      <c r="D186">
-        <v>1977</v>
+        <v>756</v>
+      </c>
+      <c r="E186">
+        <v>1943</v>
       </c>
       <c r="F186" t="s">
         <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>768</v>
-      </c>
-      <c r="H186" t="s">
-        <v>769</v>
-      </c>
-      <c r="I186" t="s">
-        <v>770</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>1806</v>
+        <v>757</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="B187" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="C187" t="s">
-        <v>774</v>
-      </c>
-      <c r="D187">
-        <v>1983</v>
+        <v>760</v>
+      </c>
+      <c r="E187">
+        <v>1946</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>761</v>
       </c>
       <c r="G187" t="s">
-        <v>775</v>
-      </c>
-      <c r="H187" t="s">
-        <v>776</v>
-      </c>
-      <c r="I187" t="s">
-        <v>770</v>
-      </c>
-      <c r="J187" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="B188" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="C188" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="D188">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="F188" t="s">
         <v>43</v>
       </c>
+      <c r="G188" t="s">
+        <v>766</v>
+      </c>
       <c r="H188" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="I188" t="s">
-        <v>770</v>
-      </c>
-      <c r="J188" t="s">
-        <v>771</v>
+        <v>768</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="B189" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="C189" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="D189">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="F189" t="s">
         <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>786</v>
+        <v>773</v>
+      </c>
+      <c r="H189" t="s">
+        <v>774</v>
       </c>
       <c r="I189" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J189" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B190" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C190" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D190">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="F190" t="s">
         <v>43</v>
       </c>
-      <c r="G190" t="s">
-        <v>790</v>
+      <c r="H190" t="s">
+        <v>779</v>
       </c>
       <c r="I190" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J190" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B191" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C191" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="D191">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="I191" t="s">
-        <v>770</v>
-      </c>
-      <c r="J191" s="3" t="s">
-        <v>1805</v>
+        <v>768</v>
+      </c>
+      <c r="J191" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B192" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C192" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D192">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="F192" t="s">
         <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="I192" t="s">
-        <v>66</v>
-      </c>
-      <c r="J192" s="3" t="s">
-        <v>1804</v>
+        <v>768</v>
+      </c>
+      <c r="J192" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B193" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C193" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D193">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="I193" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B194" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="C194" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D194">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="F194" t="s">
         <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="I194" t="s">
-        <v>770</v>
+        <v>66</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B195" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C195" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D195">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F195" t="s">
         <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>810</v>
+        <v>800</v>
+      </c>
+      <c r="I195" t="s">
+        <v>768</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B196" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C196" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D196">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="F196" t="s">
         <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="I196" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="B197" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="C197" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="D197">
         <v>1991</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>819</v>
-      </c>
-      <c r="I197" t="s">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="B198" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="C198" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="D198">
-        <v>1980</v>
+        <v>1991</v>
       </c>
       <c r="F198" t="s">
         <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="I198" t="s">
-        <v>770</v>
-      </c>
-      <c r="J198" t="s">
-        <v>815</v>
+        <v>768</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="B199" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="C199" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="D199">
-        <v>1980</v>
+        <v>1991</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>829</v>
-      </c>
-      <c r="H199" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="I199" t="s">
-        <v>770</v>
-      </c>
-      <c r="J199" t="s">
-        <v>820</v>
+        <v>768</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="B200" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C200" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="D200">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F200" t="s">
         <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="I200" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J200" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="B201" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C201" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D201">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="F201" t="s">
         <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>840</v>
+        <v>827</v>
+      </c>
+      <c r="H201" t="s">
+        <v>828</v>
       </c>
       <c r="I201" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J201" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B202" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="C202" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D202">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="F202" t="s">
         <v>43</v>
       </c>
       <c r="G202" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="I202" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J202" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="B203" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C203" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="D203">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F203" t="s">
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="I203" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J203" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B204" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C204" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="D204">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="F204" t="s">
         <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="I204" t="s">
-        <v>770</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>1798</v>
+        <v>768</v>
+      </c>
+      <c r="J204" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="B205" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C205" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D205">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="F205" t="s">
         <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>857</v>
-      </c>
-      <c r="H205" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="I205" t="s">
-        <v>770</v>
-      </c>
-      <c r="J205" s="3" t="s">
-        <v>1797</v>
+        <v>768</v>
+      </c>
+      <c r="J205" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="B206" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C206" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="D206">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="F206" t="s">
         <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="I206" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="B207" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="C207" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="D207">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F207" t="s">
         <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>866</v>
+        <v>855</v>
+      </c>
+      <c r="H207" t="s">
+        <v>856</v>
       </c>
       <c r="I207" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1818</v>
+        <v>857</v>
       </c>
       <c r="B208" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C208" t="s">
-        <v>1819</v>
+        <v>859</v>
       </c>
       <c r="D208">
-        <v>1978</v>
+        <v>1987</v>
       </c>
       <c r="F208" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="I208" t="s">
-        <v>869</v>
+        <v>768</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B209" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C209" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="D209">
         <v>1985</v>
       </c>
       <c r="F209" t="s">
-        <v>873</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="I209" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1716</v>
+        <v>1812</v>
       </c>
       <c r="B210" t="s">
-        <v>1717</v>
+        <v>865</v>
       </c>
       <c r="C210" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1719</v>
+        <v>1813</v>
+      </c>
+      <c r="D210">
+        <v>1978</v>
       </c>
       <c r="F210" t="s">
         <v>49</v>
       </c>
       <c r="G210" t="s">
-        <v>1720</v>
-      </c>
-      <c r="H210" s="6" t="s">
-        <v>1721</v>
+        <v>866</v>
+      </c>
+      <c r="I210" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B211" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C211" t="s">
-        <v>878</v>
-      </c>
-      <c r="D211" t="s">
-        <v>879</v>
+        <v>870</v>
+      </c>
+      <c r="D211">
+        <v>1985</v>
       </c>
       <c r="F211" t="s">
-        <v>525</v>
+        <v>871</v>
       </c>
       <c r="G211" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+      <c r="I211" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>881</v>
+        <v>1710</v>
       </c>
       <c r="B212" t="s">
-        <v>882</v>
+        <v>1711</v>
       </c>
       <c r="C212" t="s">
-        <v>883</v>
+        <v>1712</v>
       </c>
       <c r="D212" t="s">
-        <v>879</v>
+        <v>1713</v>
       </c>
       <c r="F212" t="s">
-        <v>525</v>
+        <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>884</v>
+        <v>1714</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="B213" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="C213" t="s">
-        <v>887</v>
-      </c>
-      <c r="D213">
-        <v>1985</v>
+        <v>876</v>
+      </c>
+      <c r="D213" t="s">
+        <v>877</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>523</v>
       </c>
       <c r="G213" t="s">
-        <v>888</v>
-      </c>
-      <c r="I213" t="s">
-        <v>66</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>1794</v>
+        <v>878</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B214" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="C214" t="s">
-        <v>891</v>
-      </c>
-      <c r="D214">
-        <v>1988</v>
+        <v>881</v>
+      </c>
+      <c r="D214" t="s">
+        <v>877</v>
       </c>
       <c r="F214" t="s">
-        <v>49</v>
+        <v>523</v>
       </c>
       <c r="G214" t="s">
-        <v>892</v>
-      </c>
-      <c r="I214" t="s">
-        <v>66</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>1793</v>
+        <v>882</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B215" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C215" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="D215">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="F215" t="s">
         <v>49</v>
       </c>
       <c r="G215" t="s">
-        <v>896</v>
-      </c>
-      <c r="H215" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="I215" t="s">
         <v>66</v>
       </c>
+      <c r="J215" s="3" t="s">
+        <v>1788</v>
+      </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="B216" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C216" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="D216">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G216" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="I216" t="s">
-        <v>902</v>
+        <v>66</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="B217" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="C217" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="D217">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="F217" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="G217" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="H217" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="I217" t="s">
-        <v>362</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B218" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="C218" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D218">
-        <v>1973</v>
+        <v>1993</v>
       </c>
       <c r="F218" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="G218" t="s">
-        <v>911</v>
-      </c>
-      <c r="H218" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="I218" t="s">
-        <v>362</v>
-      </c>
-      <c r="J218" t="s">
-        <v>1722</v>
+        <v>900</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="B219" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="C219" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D219">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="F219" t="s">
         <v>105</v>
       </c>
       <c r="G219" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="H219" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="I219" t="s">
         <v>362</v>
       </c>
-      <c r="J219" t="s">
-        <v>1723</v>
-      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="B220" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="C220" t="s">
-        <v>920</v>
-      </c>
-      <c r="E220">
-        <v>1993</v>
+        <v>908</v>
+      </c>
+      <c r="D220">
+        <v>1973</v>
       </c>
       <c r="F220" t="s">
         <v>105</v>
       </c>
       <c r="G220" t="s">
-        <v>921</v>
+        <v>909</v>
+      </c>
+      <c r="H220" t="s">
+        <v>910</v>
       </c>
       <c r="I220" t="s">
-        <v>922</v>
+        <v>362</v>
       </c>
       <c r="J220" t="s">
-        <v>923</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="B221" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="C221" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="D221">
-        <v>1986</v>
+        <v>1973</v>
       </c>
       <c r="F221" t="s">
         <v>105</v>
       </c>
       <c r="G221" t="s">
-        <v>927</v>
+        <v>914</v>
+      </c>
+      <c r="H221" t="s">
+        <v>915</v>
+      </c>
+      <c r="I221" t="s">
+        <v>362</v>
       </c>
       <c r="J221" t="s">
-        <v>923</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="B222" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="C222" t="s">
-        <v>930</v>
-      </c>
-      <c r="D222">
-        <v>1994</v>
+        <v>918</v>
+      </c>
+      <c r="E222">
+        <v>1993</v>
       </c>
       <c r="F222" t="s">
         <v>105</v>
       </c>
       <c r="G222" t="s">
-        <v>931</v>
-      </c>
-      <c r="H222" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="I222" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="J222" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B223" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C223" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="D223">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="F223" t="s">
         <v>105</v>
       </c>
       <c r="G223" t="s">
-        <v>937</v>
-      </c>
-      <c r="H223" t="s">
-        <v>938</v>
-      </c>
-      <c r="I223" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="J223" t="s">
-        <v>1724</v>
+        <v>921</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="B224" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="C224" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="D224">
         <v>1994</v>
@@ -11720,451 +11774,457 @@
         <v>105</v>
       </c>
       <c r="G224" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="H224" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="I224" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J224" t="s">
-        <v>1725</v>
+        <v>921</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="B225" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="C225" t="s">
-        <v>946</v>
-      </c>
-      <c r="E225">
-        <v>1945</v>
+        <v>934</v>
+      </c>
+      <c r="D225">
+        <v>1994</v>
       </c>
       <c r="F225" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+      <c r="G225" t="s">
+        <v>935</v>
       </c>
       <c r="H225" t="s">
-        <v>947</v>
+        <v>936</v>
+      </c>
+      <c r="I225" t="s">
+        <v>931</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="B226" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C226" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="D226">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="G226" t="s">
-        <v>951</v>
+        <v>940</v>
+      </c>
+      <c r="H226" t="s">
+        <v>941</v>
       </c>
       <c r="I226" t="s">
-        <v>902</v>
+        <v>931</v>
+      </c>
+      <c r="J226" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B227" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="C227" t="s">
-        <v>954</v>
-      </c>
-      <c r="D227">
-        <v>1962</v>
+        <v>944</v>
+      </c>
+      <c r="E227">
+        <v>1945</v>
       </c>
       <c r="F227" t="s">
-        <v>955</v>
-      </c>
-      <c r="G227" t="s">
-        <v>956</v>
-      </c>
-      <c r="I227" t="s">
-        <v>957</v>
+        <v>84</v>
+      </c>
+      <c r="H227" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="B228" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="C228" t="s">
-        <v>960</v>
-      </c>
-      <c r="E228">
-        <v>1992</v>
+        <v>948</v>
+      </c>
+      <c r="D228">
+        <v>1991</v>
       </c>
       <c r="F228" t="s">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="G228" t="s">
-        <v>961</v>
-      </c>
-      <c r="J228" t="s">
-        <v>962</v>
+        <v>949</v>
+      </c>
+      <c r="I228" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="B229" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="C229" t="s">
-        <v>965</v>
-      </c>
-      <c r="E229">
-        <v>1993</v>
+        <v>952</v>
+      </c>
+      <c r="D229">
+        <v>1962</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>953</v>
       </c>
       <c r="G229" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="I229" t="s">
-        <v>120</v>
+        <v>955</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B230" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="C230" t="s">
-        <v>969</v>
-      </c>
-      <c r="D230">
-        <v>1986</v>
+        <v>958</v>
+      </c>
+      <c r="E230">
+        <v>1992</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>953</v>
       </c>
       <c r="G230" t="s">
-        <v>970</v>
-      </c>
-      <c r="H230" t="s">
-        <v>971</v>
-      </c>
-      <c r="I230" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="J230" t="s">
-        <v>1726</v>
+        <v>960</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="B231" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="C231" t="s">
-        <v>975</v>
-      </c>
-      <c r="D231">
-        <v>1997</v>
+        <v>963</v>
+      </c>
+      <c r="E231">
+        <v>1993</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>976</v>
-      </c>
-      <c r="H231" t="s">
-        <v>977</v>
-      </c>
-      <c r="J231" t="s">
-        <v>978</v>
+        <v>964</v>
+      </c>
+      <c r="I231" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="B232" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="C232" t="s">
-        <v>981</v>
-      </c>
-      <c r="D232" t="s">
-        <v>982</v>
+        <v>967</v>
+      </c>
+      <c r="D232">
+        <v>1986</v>
       </c>
       <c r="F232" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>983</v>
+        <v>968</v>
+      </c>
+      <c r="H232" t="s">
+        <v>969</v>
+      </c>
+      <c r="I232" t="s">
+        <v>970</v>
       </c>
       <c r="J232" t="s">
-        <v>984</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="B233" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="C233" t="s">
-        <v>987</v>
-      </c>
-      <c r="D233" t="s">
-        <v>982</v>
+        <v>973</v>
+      </c>
+      <c r="D233">
+        <v>1997</v>
       </c>
       <c r="F233" t="s">
         <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="H233" t="s">
-        <v>988</v>
+        <v>975</v>
+      </c>
+      <c r="J233" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="B234" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="C234" t="s">
-        <v>991</v>
-      </c>
-      <c r="D234">
-        <v>1969</v>
+        <v>979</v>
+      </c>
+      <c r="D234" t="s">
+        <v>980</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="G234" t="s">
-        <v>992</v>
-      </c>
-      <c r="H234" t="s">
-        <v>993</v>
-      </c>
-      <c r="I234" t="s">
-        <v>994</v>
+        <v>981</v>
+      </c>
+      <c r="J234" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="B235" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="C235" t="s">
-        <v>997</v>
-      </c>
-      <c r="D235">
-        <v>1974</v>
+        <v>985</v>
+      </c>
+      <c r="D235" t="s">
+        <v>980</v>
       </c>
       <c r="F235" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="H235" t="s">
-        <v>999</v>
-      </c>
-      <c r="I235" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="B236" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="C236" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="D236">
-        <v>1963</v>
+        <v>1969</v>
       </c>
       <c r="F236" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="H236" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="I236" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="B237" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="C237" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="D237">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="F237" t="s">
         <v>270</v>
       </c>
       <c r="G237" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="H237" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="I237" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="B238" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C238" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="D238">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="F238" t="s">
         <v>270</v>
       </c>
       <c r="G238" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H238" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="I238" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J238" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B239" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="C239" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D239">
-        <v>1982</v>
+        <v>1963</v>
       </c>
       <c r="F239" t="s">
         <v>270</v>
       </c>
       <c r="G239" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="H239" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="I239" t="s">
-        <v>1022</v>
+        <v>998</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="B240" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="C240" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="D240">
-        <v>1986</v>
+        <v>1974</v>
       </c>
       <c r="F240" t="s">
         <v>270</v>
       </c>
       <c r="G240" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="H240" t="s">
-        <v>1027</v>
+        <v>1013</v>
+      </c>
+      <c r="I240" t="s">
+        <v>998</v>
       </c>
       <c r="J240" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="B241" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="C241" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="D241">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="F241" t="s">
         <v>270</v>
       </c>
       <c r="G241" t="s">
-        <v>1032</v>
+        <v>1018</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1019</v>
       </c>
       <c r="I241" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J241" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="B242" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="C242" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="D242">
         <v>1986</v>
@@ -12173,228 +12233,234 @@
         <v>270</v>
       </c>
       <c r="G242" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="H242" t="s">
-        <v>1039</v>
+        <v>1025</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="B243" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="C243" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="D243">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="F243" t="s">
         <v>270</v>
       </c>
       <c r="G243" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H243" t="s">
-        <v>1044</v>
+        <v>1030</v>
+      </c>
+      <c r="I243" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J243" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="B244" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="C244" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D244">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="F244" t="s">
         <v>270</v>
       </c>
       <c r="G244" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1033</v>
+        <v>1036</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="B245" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="C245" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="D245">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="F245" t="s">
         <v>270</v>
       </c>
       <c r="G245" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1033</v>
+        <v>1041</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="B246" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="C246" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="D246">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="F246" t="s">
         <v>270</v>
       </c>
       <c r="G246" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="I246" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="B247" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="C247" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="D247">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="F247" t="s">
         <v>270</v>
       </c>
       <c r="G247" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="I247" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="B248" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="C248" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="D248">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="F248" t="s">
         <v>270</v>
       </c>
       <c r="G248" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="I248" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="B249" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="C249" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="D249">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="F249" t="s">
         <v>270</v>
       </c>
       <c r="G249" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="I249" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="B250" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="C250" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="D250">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="F250" t="s">
         <v>270</v>
       </c>
       <c r="G250" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="I250" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="B251" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="C251" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="D251">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="F251" t="s">
         <v>270</v>
       </c>
       <c r="G251" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="I251" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="B252" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="C252" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="D252">
         <v>1994</v>
@@ -12403,44 +12469,44 @@
         <v>270</v>
       </c>
       <c r="G252" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="I252" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="B253" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="C253" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="D253">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="F253" t="s">
         <v>270</v>
       </c>
       <c r="G253" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="I253" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="B254" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="C254" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="D254">
         <v>1994</v>
@@ -12449,67 +12515,67 @@
         <v>270</v>
       </c>
       <c r="G254" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="I254" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="B255" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="C255" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="D255">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F255" t="s">
         <v>270</v>
       </c>
       <c r="G255" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="I255" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="B256" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="C256" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="D256">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F256" t="s">
         <v>270</v>
       </c>
       <c r="G256" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="I256" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="B257" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="C257" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="D257">
         <v>1996</v>
@@ -12518,90 +12584,90 @@
         <v>270</v>
       </c>
       <c r="G257" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="I257" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B258" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="C258" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="D258">
-        <v>1955</v>
+        <v>1996</v>
       </c>
       <c r="F258" t="s">
         <v>270</v>
       </c>
       <c r="G258" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="I258" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="B259" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="C259" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="D259">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F259" t="s">
         <v>270</v>
       </c>
       <c r="G259" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="I259" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="B260" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="C260" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="D260">
-        <v>1997</v>
+        <v>1955</v>
       </c>
       <c r="F260" t="s">
         <v>270</v>
       </c>
       <c r="G260" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="I260" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="B261" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="C261" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="D261">
         <v>1997</v>
@@ -12610,21 +12676,21 @@
         <v>270</v>
       </c>
       <c r="G261" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="I261" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B262" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="C262" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="D262">
         <v>1997</v>
@@ -12633,67 +12699,67 @@
         <v>270</v>
       </c>
       <c r="G262" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="I262" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="B263" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="C263" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="D263">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F263" t="s">
         <v>270</v>
       </c>
       <c r="G263" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="I263" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B264" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="C264" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="D264">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F264" t="s">
         <v>270</v>
       </c>
       <c r="G264" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="I264" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="B265" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="C265" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="D265">
         <v>1998</v>
@@ -12702,21 +12768,21 @@
         <v>270</v>
       </c>
       <c r="G265" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="I265" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="B266" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="C266" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="D266">
         <v>1998</v>
@@ -12725,21 +12791,21 @@
         <v>270</v>
       </c>
       <c r="G266" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="I266" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="B267" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="C267" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="D267">
         <v>1998</v>
@@ -12748,67 +12814,67 @@
         <v>270</v>
       </c>
       <c r="G267" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1139</v>
+        <v>1129</v>
+      </c>
+      <c r="I267" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="B268" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="C268" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="D268">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F268" t="s">
         <v>270</v>
       </c>
       <c r="G268" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="I268" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="B269" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="C269" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="D269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F269" t="s">
         <v>270</v>
       </c>
       <c r="G269" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I269" t="s">
-        <v>1033</v>
+        <v>1105</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="B270" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="C270" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="D270">
         <v>1999</v>
@@ -12817,21 +12883,21 @@
         <v>270</v>
       </c>
       <c r="G270" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="I270" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="B271" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="C271" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="D271">
         <v>1999</v>
@@ -12840,21 +12906,21 @@
         <v>270</v>
       </c>
       <c r="G271" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="I271" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="B272" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="C272" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="D272">
         <v>1999</v>
@@ -12863,21 +12929,21 @@
         <v>270</v>
       </c>
       <c r="G272" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I272" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="B273" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="C273" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="D273">
         <v>1999</v>
@@ -12886,24 +12952,21 @@
         <v>270</v>
       </c>
       <c r="G273" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="I273" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J273" t="s">
-        <v>1162</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="B274" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="C274" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="D274">
         <v>1999</v>
@@ -12912,857 +12975,854 @@
         <v>270</v>
       </c>
       <c r="G274" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="I274" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="B275" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="C275" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="D275">
-        <v>1950</v>
+        <v>1999</v>
       </c>
       <c r="F275" t="s">
-        <v>1170</v>
+        <v>270</v>
       </c>
       <c r="G275" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1172</v>
+        <v>1159</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J275" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="B276" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="C276" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="D276">
-        <v>1980</v>
+        <v>1999</v>
       </c>
       <c r="F276" t="s">
-        <v>1170</v>
+        <v>270</v>
       </c>
       <c r="G276" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H276" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="I276" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J276" t="s">
-        <v>1727</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="B277" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="C277" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="D277">
-        <v>1991</v>
+        <v>1950</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>1168</v>
       </c>
       <c r="G277" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I277" t="s">
-        <v>902</v>
-      </c>
-      <c r="J277" t="s">
-        <v>1167</v>
+        <v>1169</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="B278" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="C278" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="D278">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="F278" t="s">
-        <v>30</v>
+        <v>1168</v>
       </c>
       <c r="G278" t="s">
-        <v>1186</v>
+        <v>1174</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1175</v>
       </c>
       <c r="I278" t="s">
-        <v>902</v>
+        <v>1176</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="B279" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="C279" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="D279">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="F279" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="I279" t="s">
-        <v>902</v>
+        <v>900</v>
+      </c>
+      <c r="J279" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="B280" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="C280" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E280">
-        <v>1963</v>
+        <v>1183</v>
+      </c>
+      <c r="D280">
+        <v>1988</v>
       </c>
       <c r="F280" t="s">
-        <v>1194</v>
+        <v>30</v>
       </c>
       <c r="G280" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1196</v>
+        <v>1184</v>
+      </c>
+      <c r="I280" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="B281" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="C281" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="D281">
-        <v>1949</v>
+        <v>1987</v>
       </c>
       <c r="F281" t="s">
-        <v>1194</v>
+        <v>49</v>
       </c>
       <c r="G281" t="s">
-        <v>1200</v>
+        <v>1188</v>
+      </c>
+      <c r="I281" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="B282" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="C282" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="E282">
-        <v>2003</v>
+        <v>1963</v>
       </c>
       <c r="F282" t="s">
-        <v>270</v>
+        <v>1192</v>
       </c>
       <c r="G282" t="s">
-        <v>707</v>
+        <v>1193</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="B283" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="C283" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D283" t="s">
-        <v>1728</v>
+        <v>1197</v>
+      </c>
+      <c r="D283">
+        <v>1949</v>
       </c>
       <c r="F283" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G283" t="s">
-        <v>707</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="B284" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="C284" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D284">
-        <v>1991</v>
+        <v>1201</v>
+      </c>
+      <c r="E284">
+        <v>2003</v>
       </c>
       <c r="F284" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="G284" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I284" t="s">
-        <v>902</v>
+        <v>705</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B285" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="C285" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D285">
-        <v>1934</v>
+        <v>1204</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1722</v>
       </c>
       <c r="F285" t="s">
-        <v>43</v>
+        <v>1192</v>
       </c>
       <c r="G285" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I285" t="s">
-        <v>1215</v>
+        <v>705</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="B286" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="C286" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="D286">
+        <v>1991</v>
+      </c>
+      <c r="F286" t="s">
+        <v>30</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I286" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D287">
         <v>1934</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F287" t="s">
         <v>43</v>
       </c>
-      <c r="G286" t="s">
-        <v>9</v>
-      </c>
-      <c r="I286" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E287" s="5">
-        <v>1969</v>
-      </c>
-      <c r="F287" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G287" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H287" s="5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I287" s="5" t="s">
-        <v>53</v>
+      <c r="G287" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="B288" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="C288" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="D288">
-        <v>1970</v>
+        <v>1934</v>
       </c>
       <c r="F288" t="s">
-        <v>1227</v>
+        <v>43</v>
       </c>
       <c r="G288" t="s">
-        <v>1228</v>
-      </c>
-      <c r="J288" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>1230</v>
+        <v>9</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
+        <v>1217</v>
       </c>
       <c r="B289" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D289">
-        <v>1983</v>
-      </c>
-      <c r="F289" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G289" t="s">
-        <v>1233</v>
+        <v>1828</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E289" s="6">
+        <v>1969</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H289" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I289" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="B290" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="C290" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="D290">
-        <v>1988</v>
+        <v>1970</v>
       </c>
       <c r="F290" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G290" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H290" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="J290" t="s">
-        <v>1729</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="B291" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="C291" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E291">
-        <v>1992</v>
+        <v>1228</v>
+      </c>
+      <c r="D291">
+        <v>1983</v>
       </c>
       <c r="F291" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G291" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="B292" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="C292" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="D292">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>1223</v>
       </c>
       <c r="G292" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I292" t="s">
-        <v>66</v>
+        <v>1233</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1234</v>
       </c>
       <c r="J292" t="s">
-        <v>1247</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="B293" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="C293" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D293">
-        <v>1983</v>
+        <v>1237</v>
+      </c>
+      <c r="E293">
+        <v>1992</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>1223</v>
       </c>
       <c r="G293" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I293" t="s">
-        <v>313</v>
-      </c>
-      <c r="J293" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
       <c r="B294" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
       <c r="C294" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="D294">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G294" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="I294" t="s">
-        <v>313</v>
-      </c>
-      <c r="J294" s="3" t="s">
-        <v>1792</v>
+        <v>66</v>
+      </c>
+      <c r="J294" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="B295" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="C295" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="D295">
         <v>1983</v>
       </c>
       <c r="F295" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H295" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="I295" t="s">
         <v>313</v>
       </c>
       <c r="J295" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="B296" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="C296" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="D296">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="F296" t="s">
         <v>30</v>
       </c>
       <c r="G296" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="I296" t="s">
         <v>313</v>
       </c>
-      <c r="J296" t="s">
-        <v>1267</v>
+      <c r="J296" s="3" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
       <c r="B297" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="C297" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="D297">
         <v>1983</v>
       </c>
       <c r="F297" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G297" t="s">
-        <v>1271</v>
+        <v>1257</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1258</v>
       </c>
       <c r="I297" t="s">
         <v>313</v>
       </c>
       <c r="J297" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="B298" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="C298" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="D298">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="F298" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G298" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="I298" t="s">
         <v>313</v>
       </c>
       <c r="J298" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="B299" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="C299" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="D299">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="F299" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G299" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="I299" t="s">
         <v>313</v>
       </c>
       <c r="J299" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="B300" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="C300" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="D300">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F300" t="s">
-        <v>531</v>
+        <v>43</v>
       </c>
       <c r="G300" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="I300" t="s">
         <v>313</v>
       </c>
       <c r="J300" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
       <c r="B301" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C301" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="D301">
         <v>1986</v>
       </c>
       <c r="F301" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G301" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="I301" t="s">
         <v>313</v>
       </c>
       <c r="J301" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="B302" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="C302" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
       <c r="D302">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="F302" t="s">
-        <v>43</v>
+        <v>529</v>
       </c>
       <c r="G302" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="I302" t="s">
         <v>313</v>
       </c>
       <c r="J302" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="B303" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="C303" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
       <c r="D303">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="F303" t="s">
         <v>43</v>
       </c>
       <c r="G303" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="I303" t="s">
         <v>313</v>
       </c>
       <c r="J303" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="B304" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="C304" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="D304">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="F304" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G304" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="I304" t="s">
         <v>313</v>
       </c>
       <c r="J304" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="B305" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="C305" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="D305">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G305" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
       <c r="I305" t="s">
         <v>313</v>
       </c>
       <c r="J305" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="B306" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="C306" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="D306">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="F306" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G306" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
       <c r="I306" t="s">
         <v>313</v>
       </c>
       <c r="J306" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
       <c r="B307" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="C307" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="D307">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="F307" t="s">
         <v>30</v>
       </c>
       <c r="G307" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="I307" t="s">
         <v>313</v>
       </c>
       <c r="J307" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="B308" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="C308" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
       <c r="D308">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="F308" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G308" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
       <c r="I308" t="s">
         <v>313</v>
       </c>
       <c r="J308" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="B309" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="C309" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D309">
         <v>1987</v>
@@ -13771,1148 +13831,1154 @@
         <v>30</v>
       </c>
       <c r="G309" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="I309" t="s">
         <v>313</v>
       </c>
       <c r="J309" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="B310" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="C310" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="D310">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="F310" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G310" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="I310" t="s">
         <v>313</v>
       </c>
       <c r="J310" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="B311" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="C311" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="D311">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="F311" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G311" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="I311" t="s">
         <v>313</v>
       </c>
       <c r="J311" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="B312" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="C312" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="D312">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="F312" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G312" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="I312" t="s">
         <v>313</v>
       </c>
       <c r="J312" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="B313" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="C313" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="D313">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="F313" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G313" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="I313" t="s">
         <v>313</v>
       </c>
       <c r="J313" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="B314" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="C314" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="D314">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="F314" t="s">
         <v>15</v>
       </c>
       <c r="G314" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="I314" t="s">
         <v>313</v>
       </c>
       <c r="J314" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="B315" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="C315" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="D315">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F315" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G315" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="I315" t="s">
         <v>313</v>
       </c>
       <c r="J315" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="B316" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="C316" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="D316">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="F316" t="s">
-        <v>1366</v>
+        <v>15</v>
       </c>
       <c r="G316" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="I316" t="s">
         <v>313</v>
       </c>
       <c r="J316" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="B317" t="s">
-        <v>1370</v>
+        <v>1355</v>
       </c>
       <c r="C317" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="D317">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="F317" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G317" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="I317" t="s">
         <v>313</v>
       </c>
       <c r="J317" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="B318" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="C318" t="s">
-        <v>1376</v>
+        <v>1361</v>
       </c>
       <c r="D318">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="F318" t="s">
-        <v>43</v>
+        <v>1362</v>
       </c>
       <c r="G318" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="I318" t="s">
         <v>313</v>
       </c>
       <c r="J318" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="B319" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="C319" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="D319">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="F319" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G319" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="I319" t="s">
         <v>313</v>
       </c>
       <c r="J319" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="B320" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="C320" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="D320">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="F320" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G320" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="I320" t="s">
         <v>313</v>
       </c>
+      <c r="J320" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="B321" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
       <c r="C321" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="D321">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="F321" t="s">
-        <v>1227</v>
+        <v>43</v>
       </c>
       <c r="G321" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="I321" t="s">
         <v>313</v>
       </c>
       <c r="J321" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="B322" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="C322" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="D322">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="F322" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G322" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="I322" t="s">
         <v>313</v>
       </c>
-      <c r="J322" t="s">
-        <v>1397</v>
-      </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="B323" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="C323" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="D323">
-        <v>1979</v>
+        <v>1992</v>
       </c>
       <c r="F323" t="s">
-        <v>1401</v>
+        <v>1223</v>
       </c>
       <c r="G323" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="I323" t="s">
-        <v>1403</v>
+        <v>313</v>
+      </c>
+      <c r="J323" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="B324" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="C324" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="D324">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="F324" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G324" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="I324" t="s">
-        <v>1409</v>
+        <v>313</v>
+      </c>
+      <c r="J324" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="B325" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="C325" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E325">
-        <v>1989</v>
+        <v>1396</v>
+      </c>
+      <c r="D325">
+        <v>1979</v>
       </c>
       <c r="F325" t="s">
-        <v>49</v>
+        <v>1397</v>
       </c>
       <c r="G325" t="s">
-        <v>1413</v>
+        <v>1398</v>
+      </c>
+      <c r="I325" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="B326" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="C326" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E326">
-        <v>1992</v>
+        <v>1402</v>
+      </c>
+      <c r="D326">
+        <v>1985</v>
       </c>
       <c r="F326" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G326" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="H326" t="s">
-        <v>1417</v>
+        <v>1404</v>
+      </c>
+      <c r="I326" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="B327" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="C327" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="E327">
-        <v>1964</v>
+        <v>1989</v>
       </c>
       <c r="F327" t="s">
         <v>49</v>
       </c>
       <c r="G327" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H327" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="B328" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="C328" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D328">
-        <v>1996</v>
+        <v>1412</v>
+      </c>
+      <c r="E328">
+        <v>1992</v>
       </c>
       <c r="F328" t="s">
         <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="H328" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1730</v>
-      </c>
-      <c r="J328" t="s">
-        <v>1731</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
       <c r="B329" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="C329" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E329">
-        <v>1945</v>
+        <v>1964</v>
       </c>
       <c r="F329" t="s">
-        <v>84</v>
+        <v>49</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1732</v>
+        <v>1418</v>
       </c>
       <c r="B330" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="C330" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="D330">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="F330" t="s">
-        <v>1432</v>
+        <v>49</v>
       </c>
       <c r="G330" t="s">
-        <v>1433</v>
+        <v>1421</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1422</v>
       </c>
       <c r="I330" t="s">
-        <v>1434</v>
-      </c>
-      <c r="J330" s="3" t="s">
-        <v>1791</v>
+        <v>1724</v>
+      </c>
+      <c r="J330" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="B331" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="C331" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D331">
-        <v>1988</v>
+        <v>1425</v>
+      </c>
+      <c r="E331">
+        <v>1945</v>
       </c>
       <c r="F331" t="s">
-        <v>30</v>
-      </c>
-      <c r="G331" t="s">
-        <v>1438</v>
-      </c>
-      <c r="I331" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1439</v>
+        <v>1726</v>
       </c>
       <c r="B332" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="C332" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="D332">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>1428</v>
       </c>
       <c r="G332" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="I332" t="s">
-        <v>17</v>
+        <v>1430</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="B333" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="C333" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1733</v>
+        <v>1433</v>
+      </c>
+      <c r="D333">
+        <v>1988</v>
       </c>
       <c r="F333" t="s">
-        <v>706</v>
+        <v>30</v>
       </c>
       <c r="G333" t="s">
-        <v>1446</v>
+        <v>1434</v>
+      </c>
+      <c r="I333" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1734</v>
+        <v>1435</v>
       </c>
       <c r="B334" t="s">
-        <v>1735</v>
+        <v>1436</v>
       </c>
       <c r="C334" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1737</v>
+        <v>1437</v>
+      </c>
+      <c r="D334">
+        <v>1988</v>
       </c>
       <c r="F334" t="s">
-        <v>1450</v>
+        <v>30</v>
       </c>
       <c r="G334" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H334" t="s">
-        <v>1739</v>
+        <v>1438</v>
+      </c>
+      <c r="I334" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="B335" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="C335" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E335">
-        <v>1967</v>
+        <v>1441</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1727</v>
       </c>
       <c r="F335" t="s">
-        <v>1450</v>
+        <v>704</v>
       </c>
       <c r="G335" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H335" t="s">
-        <v>1452</v>
-      </c>
-      <c r="J335" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1454</v>
+        <v>1728</v>
       </c>
       <c r="B336" t="s">
-        <v>1455</v>
+        <v>1729</v>
       </c>
       <c r="C336" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D336">
-        <v>1972</v>
+        <v>1730</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1731</v>
       </c>
       <c r="F336" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G336" t="s">
-        <v>1457</v>
+        <v>1732</v>
       </c>
       <c r="H336" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1459</v>
-      </c>
-      <c r="J336" t="s">
-        <v>1460</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1461</v>
+        <v>1443</v>
       </c>
       <c r="B337" t="s">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C337" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D337">
-        <v>1985</v>
+        <v>1445</v>
+      </c>
+      <c r="E337">
+        <v>1967</v>
       </c>
       <c r="F337" t="s">
-        <v>1464</v>
+        <v>1446</v>
       </c>
       <c r="G337" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="H337" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I337" t="s">
-        <v>1467</v>
+        <v>1448</v>
+      </c>
+      <c r="J337" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1468</v>
+        <v>1450</v>
       </c>
       <c r="B338" t="s">
-        <v>1469</v>
+        <v>1451</v>
       </c>
       <c r="C338" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="D338">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="F338" t="s">
-        <v>1464</v>
+        <v>1446</v>
       </c>
       <c r="G338" t="s">
-        <v>1471</v>
+        <v>1453</v>
       </c>
       <c r="H338" t="s">
-        <v>1472</v>
+        <v>1454</v>
       </c>
       <c r="I338" t="s">
-        <v>1473</v>
+        <v>1455</v>
       </c>
       <c r="J338" t="s">
-        <v>1740</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1741</v>
+        <v>1457</v>
       </c>
       <c r="B339" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
       <c r="C339" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="D339">
-        <v>1978</v>
+        <v>1985</v>
       </c>
       <c r="F339" t="s">
-        <v>43</v>
+        <v>1460</v>
       </c>
       <c r="G339" t="s">
-        <v>1476</v>
+        <v>1461</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1462</v>
       </c>
       <c r="I339" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="B340" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="C340" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E340">
-        <v>1992</v>
+        <v>1466</v>
+      </c>
+      <c r="D340">
+        <v>1989</v>
       </c>
       <c r="F340" t="s">
-        <v>11</v>
+        <v>1460</v>
       </c>
       <c r="G340" t="s">
-        <v>651</v>
+        <v>1467</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1481</v>
+        <v>1735</v>
       </c>
       <c r="B341" t="s">
-        <v>1742</v>
+        <v>1470</v>
       </c>
       <c r="C341" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E341">
-        <v>1970</v>
+        <v>1471</v>
+      </c>
+      <c r="D341">
+        <v>1978</v>
       </c>
       <c r="F341" t="s">
-        <v>706</v>
+        <v>43</v>
       </c>
       <c r="G341" t="s">
-        <v>651</v>
+        <v>1472</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1744</v>
+        <v>1474</v>
       </c>
       <c r="B342" t="s">
-        <v>1745</v>
+        <v>1475</v>
       </c>
       <c r="C342" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D342">
-        <v>1982</v>
+        <v>1476</v>
+      </c>
+      <c r="E342">
+        <v>1992</v>
       </c>
       <c r="F342" t="s">
-        <v>1366</v>
+        <v>11</v>
       </c>
       <c r="G342" t="s">
-        <v>1747</v>
-      </c>
-      <c r="H342" t="s">
-        <v>1748</v>
-      </c>
-      <c r="I342" t="s">
-        <v>1749</v>
-      </c>
-      <c r="J342" t="s">
-        <v>1750</v>
+        <v>649</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="B343" t="s">
-        <v>1483</v>
+        <v>1736</v>
       </c>
       <c r="C343" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1615</v>
+        <v>1737</v>
+      </c>
+      <c r="E343">
+        <v>1970</v>
       </c>
       <c r="F343" t="s">
-        <v>1366</v>
+        <v>704</v>
       </c>
       <c r="G343" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I343" t="s">
-        <v>1486</v>
+        <v>649</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1487</v>
+        <v>1738</v>
       </c>
       <c r="B344" t="s">
-        <v>1488</v>
+        <v>1739</v>
       </c>
       <c r="C344" t="s">
-        <v>1489</v>
+        <v>1740</v>
       </c>
       <c r="D344">
         <v>1982</v>
       </c>
       <c r="F344" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G344" t="s">
-        <v>1490</v>
+        <v>1741</v>
       </c>
       <c r="H344" t="s">
-        <v>1491</v>
+        <v>1742</v>
       </c>
       <c r="I344" t="s">
-        <v>1492</v>
+        <v>1743</v>
       </c>
       <c r="J344" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="B345" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="C345" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E345">
-        <v>1992</v>
+        <v>1480</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1611</v>
       </c>
       <c r="F345" t="s">
-        <v>1496</v>
+        <v>1362</v>
       </c>
       <c r="G345" t="s">
-        <v>707</v>
+        <v>1481</v>
+      </c>
+      <c r="I345" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
       <c r="B346" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="C346" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="D346">
-        <v>1960</v>
+        <v>1982</v>
       </c>
       <c r="F346" t="s">
-        <v>1496</v>
+        <v>1362</v>
       </c>
       <c r="G346" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
       <c r="H346" t="s">
-        <v>1501</v>
+        <v>1487</v>
+      </c>
+      <c r="I346" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J346" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="B347" t="s">
-        <v>1752</v>
+        <v>1490</v>
       </c>
       <c r="C347" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D347">
-        <v>1987</v>
+        <v>1491</v>
+      </c>
+      <c r="E347">
+        <v>1992</v>
       </c>
       <c r="F347" t="s">
-        <v>1754</v>
+        <v>1492</v>
       </c>
       <c r="G347" t="s">
-        <v>1755</v>
-      </c>
-      <c r="H347" t="s">
-        <v>1756</v>
-      </c>
-      <c r="J347" t="s">
-        <v>1757</v>
+        <v>705</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="B348" t="s">
-        <v>1758</v>
+        <v>1494</v>
       </c>
       <c r="C348" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E348">
-        <v>1990</v>
+        <v>1495</v>
+      </c>
+      <c r="D348">
+        <v>1960</v>
       </c>
       <c r="F348" t="s">
-        <v>1760</v>
+        <v>1492</v>
       </c>
       <c r="G348" t="s">
-        <v>1761</v>
+        <v>1496</v>
       </c>
       <c r="H348" t="s">
-        <v>1762</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="B349" t="s">
-        <v>1763</v>
+        <v>1746</v>
       </c>
       <c r="C349" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E349">
-        <v>1990</v>
+        <v>1747</v>
+      </c>
+      <c r="D349">
+        <v>1987</v>
       </c>
       <c r="F349" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="G349" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="H349" t="s">
-        <v>1762</v>
+        <v>1750</v>
+      </c>
+      <c r="J349" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="B350" t="s">
-        <v>1766</v>
+        <v>1752</v>
       </c>
       <c r="C350" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D350">
-        <v>1987</v>
+        <v>1753</v>
+      </c>
+      <c r="E350">
+        <v>1990</v>
       </c>
       <c r="F350" t="s">
         <v>1754</v>
       </c>
       <c r="G350" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="H350" t="s">
-        <v>1769</v>
-      </c>
-      <c r="J350" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="B351" t="s">
-        <v>1771</v>
+        <v>1757</v>
       </c>
       <c r="C351" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D351">
-        <v>1987</v>
+        <v>1758</v>
+      </c>
+      <c r="E351">
+        <v>1990</v>
       </c>
       <c r="F351" t="s">
         <v>1754</v>
       </c>
       <c r="G351" t="s">
-        <v>1773</v>
+        <v>1759</v>
       </c>
       <c r="H351" t="s">
-        <v>1774</v>
-      </c>
-      <c r="J351" t="s">
-        <v>1775</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1776</v>
+        <v>1501</v>
       </c>
       <c r="B352" t="s">
-        <v>1777</v>
+        <v>1760</v>
       </c>
       <c r="C352" t="s">
-        <v>1778</v>
+        <v>1761</v>
       </c>
       <c r="D352">
         <v>1987</v>
       </c>
       <c r="F352" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="G352" t="s">
-        <v>1779</v>
+        <v>1762</v>
       </c>
       <c r="H352" t="s">
-        <v>1780</v>
+        <v>1763</v>
       </c>
       <c r="J352" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1782</v>
+        <v>1502</v>
       </c>
       <c r="B353" t="s">
-        <v>1783</v>
+        <v>1765</v>
       </c>
       <c r="C353" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E353">
+        <v>1766</v>
+      </c>
+      <c r="D353">
+        <v>1987</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H353" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J353" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D354">
+        <v>1987</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H354" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J354" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E355">
         <v>1992</v>
-      </c>
-      <c r="F353" t="s">
-        <v>335</v>
-      </c>
-      <c r="G353" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D354">
-        <v>1975</v>
-      </c>
-      <c r="F354" t="s">
-        <v>335</v>
-      </c>
-      <c r="G354" t="s">
-        <v>1510</v>
-      </c>
-      <c r="H354" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D355">
-        <v>1961</v>
       </c>
       <c r="F355" t="s">
         <v>335</v>
       </c>
       <c r="G355" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I355" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="B356" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="C356" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="D356">
         <v>1975</v>
@@ -14921,395 +14987,441 @@
         <v>335</v>
       </c>
       <c r="G356" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1506</v>
+      </c>
+      <c r="H356" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="B357" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="C357" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E357">
-        <v>1992</v>
+        <v>1510</v>
+      </c>
+      <c r="D357">
+        <v>1961</v>
       </c>
       <c r="F357" t="s">
         <v>335</v>
       </c>
       <c r="G357" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1511</v>
+      </c>
+      <c r="I357" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="B358" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="C358" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E358">
-        <v>1993</v>
+        <v>1515</v>
+      </c>
+      <c r="D358">
+        <v>1975</v>
       </c>
       <c r="F358" t="s">
         <v>335</v>
       </c>
       <c r="G358" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="B359" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="C359" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D359">
-        <v>1972</v>
+        <v>1519</v>
+      </c>
+      <c r="E359">
+        <v>1992</v>
       </c>
       <c r="F359" t="s">
         <v>335</v>
       </c>
       <c r="G359" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I359" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="B360" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="C360" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D360">
-        <v>1975</v>
+        <v>1523</v>
+      </c>
+      <c r="E360">
+        <v>1993</v>
       </c>
       <c r="F360" t="s">
         <v>335</v>
       </c>
       <c r="G360" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H360" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="B361" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="C361" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
       <c r="D361">
-        <v>1982</v>
+        <v>1972</v>
       </c>
       <c r="F361" t="s">
         <v>335</v>
       </c>
       <c r="G361" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H361" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1528</v>
+      </c>
+      <c r="I361" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1786</v>
+        <v>1529</v>
       </c>
       <c r="B362" t="s">
-        <v>1787</v>
+        <v>1530</v>
       </c>
       <c r="C362" t="s">
-        <v>1788</v>
-      </c>
-      <c r="E362">
-        <v>1992</v>
+        <v>1531</v>
+      </c>
+      <c r="D362">
+        <v>1975</v>
       </c>
       <c r="F362" t="s">
         <v>335</v>
       </c>
-      <c r="I362" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G362" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H362" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="B363" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="C363" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E363">
+        <v>1536</v>
+      </c>
+      <c r="D363">
         <v>1982</v>
       </c>
       <c r="F363" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="G363" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="H363" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="5" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E364" s="5">
-        <v>1964</v>
-      </c>
-      <c r="F364" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G364" s="5" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E364">
+        <v>1992</v>
+      </c>
+      <c r="F364" t="s">
+        <v>335</v>
+      </c>
+      <c r="I364" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="B365" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="C365" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D365">
-        <v>1956</v>
+        <v>1541</v>
+      </c>
+      <c r="E365">
+        <v>1982</v>
       </c>
       <c r="F365" t="s">
         <v>15</v>
       </c>
       <c r="G365" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H365" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E366" s="6">
+        <v>1964</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D367">
+        <v>1956</v>
+      </c>
+      <c r="F367" t="s">
+        <v>15</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D368" t="s">
         <v>1555</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F366" t="s">
-        <v>15</v>
-      </c>
-      <c r="G366" t="s">
-        <v>707</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E367">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D368">
-        <v>1954</v>
       </c>
       <c r="F368" t="s">
         <v>15</v>
       </c>
       <c r="G368" t="s">
-        <v>1565</v>
+        <v>705</v>
+      </c>
+      <c r="H368" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="E369">
-        <v>1943</v>
-      </c>
-      <c r="F369" t="s">
-        <v>11</v>
-      </c>
-      <c r="G369" t="s">
-        <v>707</v>
-      </c>
-      <c r="I369" t="s">
-        <v>12</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="B370" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="C370" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="D370">
-        <v>1989</v>
+        <v>1954</v>
       </c>
       <c r="F370" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G370" t="s">
-        <v>1572</v>
-      </c>
-      <c r="H370" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I370" t="s">
-        <v>1574</v>
-      </c>
-      <c r="J370" s="3" t="s">
-        <v>1790</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="B371" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="C371" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D371" t="s">
-        <v>879</v>
+        <v>1564</v>
+      </c>
+      <c r="E371">
+        <v>1943</v>
       </c>
       <c r="F371" t="s">
-        <v>1578</v>
+        <v>11</v>
       </c>
       <c r="G371" t="s">
-        <v>1579</v>
+        <v>705</v>
       </c>
       <c r="I371" t="s">
-        <v>1580</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="B372" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="C372" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="D372">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="F372" t="s">
         <v>43</v>
       </c>
       <c r="G372" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D373" t="s">
+        <v>877</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D374">
+        <v>1993</v>
+      </c>
+      <c r="F374" t="s">
+        <v>43</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J374" s="3" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C375" t="s">
         <v>1584</v>
       </c>
-      <c r="I372" t="s">
+      <c r="D375">
+        <v>1934</v>
+      </c>
+      <c r="F375" t="s">
+        <v>43</v>
+      </c>
+      <c r="G375" t="s">
         <v>1585</v>
       </c>
-      <c r="J372" s="3" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A373" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D373">
-        <v>1934</v>
-      </c>
-      <c r="F373" t="s">
-        <v>43</v>
-      </c>
-      <c r="G373" s="2" t="s">
-        <v>1589</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CP373" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CP375" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J372" r:id="rId1" display="https://apps.ams.usda.gov/CMS/AdobeImages/009300304.pdf" xr:uid="{B2F7608C-EBB2-AC46-95CC-9A96ABFC8EC2}"/>
-    <hyperlink ref="J370" r:id="rId2" display="https://apps.ams.usda.gov/CMS/AdobeImages/008900156.pdf" xr:uid="{1CAE5384-6A30-6E45-85BD-1E74F69E831D}"/>
-    <hyperlink ref="J330" r:id="rId3" display="https://apps.ams.usda.gov/CMS/AdobeImages/009000129.pdf" xr:uid="{DA7421C9-B0A3-5B4E-86D4-3512A2FCD5D3}"/>
-    <hyperlink ref="J294" r:id="rId4" display="https://apps.ams.usda.gov/CMS/AdobeImages/008300140.pdf" xr:uid="{7AF0B59F-1612-0F43-969F-A8ACE095B500}"/>
-    <hyperlink ref="J214" r:id="rId5" display="https://apps.ams.usda.gov/CMS/AdobeImages/008800194.pdf" xr:uid="{9894E859-922E-CD4F-B3E9-C1D5981F147A}"/>
-    <hyperlink ref="J213" r:id="rId6" display="https://apps.ams.usda.gov/CMS/AdobeImages/008500127.pdf" xr:uid="{9F80E284-5012-E54F-93E1-CDBC9583FE1B}"/>
-    <hyperlink ref="J207" r:id="rId7" display="https://apps.ams.usda.gov/CMS/AdobeImages/008500038.pdf" xr:uid="{3A9B508B-B7D9-B349-8B94-70B6CC8AC111}"/>
-    <hyperlink ref="J206" r:id="rId8" display="https://apps.ams.usda.gov/CMS/AdobeImages/008700088.pdf" xr:uid="{4E6566D2-CD8B-254A-BE79-FECFA65C4806}"/>
-    <hyperlink ref="J205" r:id="rId9" display="https://apps.ams.usda.gov/CMS/AdobeImages/008500037.pdf" xr:uid="{1FDCA8CD-5175-CD49-8C1A-8D35BF563005}"/>
-    <hyperlink ref="J204" r:id="rId10" display="https://apps.ams.usda.gov/CMS/AdobeImages/008200063.pdf" xr:uid="{D73521A9-C6C3-AE4D-A16C-C4FB8484521C}"/>
-    <hyperlink ref="J197" r:id="rId11" display="https://apps.ams.usda.gov/CMS/AdobeImages/009100071.pdf" xr:uid="{F90D9EB1-23FD-EA43-84CB-3D92FA05AD3B}"/>
-    <hyperlink ref="J196" r:id="rId12" display="https://apps.ams.usda.gov/CMS/AdobeImages/009100069.pdf" xr:uid="{1A4D187F-C5D0-514F-BAE7-664A75020F21}"/>
-    <hyperlink ref="J195" r:id="rId13" display="https://apps.ams.usda.gov/CMS/AdobeImages/009200021.pdf" xr:uid="{D0FECD76-2D0A-634D-AF93-6E014D453C40}"/>
-    <hyperlink ref="J194" r:id="rId14" display="https://apps.ams.usda.gov/CMS/AdobeImages/009000047.pdf" xr:uid="{3D48D382-ED41-CF4B-A8B8-1E158B1F9585}"/>
-    <hyperlink ref="J193" r:id="rId15" display="https://apps.ams.usda.gov/CMS/AdobeImages/009400036.pdf" xr:uid="{701E0A58-31D6-DC45-B98E-61752DB255C0}"/>
-    <hyperlink ref="J192" r:id="rId16" display="https://apps.ams.usda.gov/CMS/AdobeImages/009300088.pdf" xr:uid="{D503B196-71E7-1340-9D7E-F37D2798819B}"/>
-    <hyperlink ref="J191" r:id="rId17" display="https://apps.ams.usda.gov/CMS/AdobeImages/009000123.pdf" xr:uid="{B4687B2F-14E1-DC4A-9E07-1C74C67EB594}"/>
-    <hyperlink ref="J186" r:id="rId18" display="https://apps.ams.usda.gov/CMS/AdobeImages/007600047.pdf" xr:uid="{ECC81FE6-BA67-6E4F-A995-0B8F56B0C0B7}"/>
+    <hyperlink ref="J374" r:id="rId1" display="https://apps.ams.usda.gov/CMS/AdobeImages/009300304.pdf" xr:uid="{B2F7608C-EBB2-AC46-95CC-9A96ABFC8EC2}"/>
+    <hyperlink ref="J372" r:id="rId2" display="https://apps.ams.usda.gov/CMS/AdobeImages/008900156.pdf" xr:uid="{1CAE5384-6A30-6E45-85BD-1E74F69E831D}"/>
+    <hyperlink ref="J332" r:id="rId3" display="https://apps.ams.usda.gov/CMS/AdobeImages/009000129.pdf" xr:uid="{DA7421C9-B0A3-5B4E-86D4-3512A2FCD5D3}"/>
+    <hyperlink ref="J296" r:id="rId4" display="https://apps.ams.usda.gov/CMS/AdobeImages/008300140.pdf" xr:uid="{7AF0B59F-1612-0F43-969F-A8ACE095B500}"/>
+    <hyperlink ref="J216" r:id="rId5" display="https://apps.ams.usda.gov/CMS/AdobeImages/008800194.pdf" xr:uid="{9894E859-922E-CD4F-B3E9-C1D5981F147A}"/>
+    <hyperlink ref="J215" r:id="rId6" display="https://apps.ams.usda.gov/CMS/AdobeImages/008500127.pdf" xr:uid="{9F80E284-5012-E54F-93E1-CDBC9583FE1B}"/>
+    <hyperlink ref="J209" r:id="rId7" display="https://apps.ams.usda.gov/CMS/AdobeImages/008500038.pdf" xr:uid="{3A9B508B-B7D9-B349-8B94-70B6CC8AC111}"/>
+    <hyperlink ref="J208" r:id="rId8" display="https://apps.ams.usda.gov/CMS/AdobeImages/008700088.pdf" xr:uid="{4E6566D2-CD8B-254A-BE79-FECFA65C4806}"/>
+    <hyperlink ref="J207" r:id="rId9" display="https://apps.ams.usda.gov/CMS/AdobeImages/008500037.pdf" xr:uid="{1FDCA8CD-5175-CD49-8C1A-8D35BF563005}"/>
+    <hyperlink ref="J206" r:id="rId10" display="https://apps.ams.usda.gov/CMS/AdobeImages/008200063.pdf" xr:uid="{D73521A9-C6C3-AE4D-A16C-C4FB8484521C}"/>
+    <hyperlink ref="J199" r:id="rId11" display="https://apps.ams.usda.gov/CMS/AdobeImages/009100071.pdf" xr:uid="{F90D9EB1-23FD-EA43-84CB-3D92FA05AD3B}"/>
+    <hyperlink ref="J198" r:id="rId12" display="https://apps.ams.usda.gov/CMS/AdobeImages/009100069.pdf" xr:uid="{1A4D187F-C5D0-514F-BAE7-664A75020F21}"/>
+    <hyperlink ref="J197" r:id="rId13" display="https://apps.ams.usda.gov/CMS/AdobeImages/009200021.pdf" xr:uid="{D0FECD76-2D0A-634D-AF93-6E014D453C40}"/>
+    <hyperlink ref="J196" r:id="rId14" display="https://apps.ams.usda.gov/CMS/AdobeImages/009000047.pdf" xr:uid="{3D48D382-ED41-CF4B-A8B8-1E158B1F9585}"/>
+    <hyperlink ref="J195" r:id="rId15" display="https://apps.ams.usda.gov/CMS/AdobeImages/009400036.pdf" xr:uid="{701E0A58-31D6-DC45-B98E-61752DB255C0}"/>
+    <hyperlink ref="J194" r:id="rId16" display="https://apps.ams.usda.gov/CMS/AdobeImages/009300088.pdf" xr:uid="{D503B196-71E7-1340-9D7E-F37D2798819B}"/>
+    <hyperlink ref="J193" r:id="rId17" display="https://apps.ams.usda.gov/CMS/AdobeImages/009000123.pdf" xr:uid="{B4687B2F-14E1-DC4A-9E07-1C74C67EB594}"/>
+    <hyperlink ref="J188" r:id="rId18" display="https://apps.ams.usda.gov/CMS/AdobeImages/007600047.pdf" xr:uid="{ECC81FE6-BA67-6E4F-A995-0B8F56B0C0B7}"/>
     <hyperlink ref="J142" r:id="rId19" display="https://apps.ams.usda.gov/CMS/AdobeImages/008700173.pdf" xr:uid="{807BEB75-7601-B14A-9517-4C352774A278}"/>
     <hyperlink ref="J141" r:id="rId20" display="https://apps.ams.usda.gov/CMS/AdobeImages/008200152.pdf" xr:uid="{9DF8FFC5-20DB-E847-A009-2ACF49AC5027}"/>
     <hyperlink ref="J138" r:id="rId21" display="https://apps.ams.usda.gov/CMS/AdobeImages/008300157.pdf" xr:uid="{D4BC36A0-83BF-284F-8086-09356E6AD6EE}"/>
@@ -15323,5 +15435,6 @@
     <hyperlink ref="J17" r:id="rId29" display="https://apps.ams.usda.gov/CMS/AdobeImages/009100124.pdf" xr:uid="{21992EB2-3136-1F45-9F74-525A630D487C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId30"/>
 </worksheet>
 </file>